--- a/public/template_instrumen.xlsx
+++ b/public/template_instrumen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\alur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819215B1-5349-4E8C-9EDD-1D4D6636251D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5A7576-DAC6-466E-BA34-2A90BBE4C759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{F29D22C7-93BF-4282-9F88-0AB83B9FEE47}"/>
   </bookViews>
@@ -1663,9 +1663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39974C29-4F78-416A-8A0F-B191B27EFFC3}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/public/template_instrumen.xlsx
+++ b/public/template_instrumen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\alur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5A7576-DAC6-466E-BA34-2A90BBE4C759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F71CD2B-F059-49E6-BB5B-4D0AB25C5431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{F29D22C7-93BF-4282-9F88-0AB83B9FEE47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="419">
   <si>
     <t>Komponen</t>
   </si>
@@ -1134,6 +1134,527 @@
     <t>Mendapatkan animo tinggi dari calon siswa</t>
   </si>
   <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Minat adalah dorongan atau keinginan dalam diri seseorang pada objek tertentu.
+2.	Bakat adalah potensi yang dimiliki oleh seseorang sebagai bawaan sejak lahir. 
+3.	Psikotes adalah tes untuk mengukur aspek-aspek individu secara psikis  melalui kecenderungan perilaku.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dokumen penjurusan siswa berdasarkan minat dan bakat.
+1.	Data hasil psikotes minat dan bakat
+2.	Data hasil penjurusan</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Prestasi akademis  adalah  pengetahuan yang dicapai atau keterampilan yang dikembangkan dalam mata pelajaran tertentu di sekolah.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dokumen penjurusan siswa berdasarkan minat dan bakat.
+1.	Hasil seleksi penjurusan berdasarkan prestasi akademis</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Kompetensi kejuruan adalah kemampuan menguasai mata pelajaran kejuruan .
+2.	Sertifikasi teknis adalah penetapan yang diberikan oleh suatu organisasi profesional terhadap seseorang untuk menunjukkan bahwa orang tersebut mampu untuk melakukan suatu pekerjaan atau tugas spesifik/teknis.  
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dokumen penjurusan siswa berdasarkan minat dan bakat.
+1.	Data guru kejuruan 
+2.	Data sertifikasi kompetensi guru kejuruan
+3.	Analisis data guru dan sertifikasi guru kejuruan</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Sertifikat LSP-P1 adalah sertifikat untuk skema .  
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dokumen penjurusan siswa berdasarkan minat dan bakat.
+1.	Data guru kejuruan 
+2.	Data sertifikasi kompetensi guru kejuruan
+3. Analisis data guru dan sertifikasi guru kejuruan</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Magang  adalah kegiatan untuk melatih, mempraktekkan ilmu teknis yang di miliki seseorang pada tempat yang sesuai dan ditentukan.
+2.	IDUKA adalah singkatan dari industri, dunia usaha dan dunia kerja.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dokumen penjurusan siswa berdasarkan minat dan bakat.
+1. Data guru magang di IDUKA</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Etos kerja adalah sikap yang muncul atas kehendak dan kesadaran sendiri yang didasari oleh sistem orientasi nilai budaya terhadap kerja.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dokumen penjurusan siswa berdasarkan minat dan bakat.
+1.	Menelaah dokumen 
+2.	Melakukan observasi
+3. Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Variabel kompetensi kewirausahaan:
+1.	Tindakan inovatif
+2.	Bekerja keras
+3.	Motivasi yang kuat
+4.	Pantang menyerah dan selalu mencari solusi terbaik
+5.	Memiliki naluri kewirausahaan
+Petunjuk Telaah Dokumen:
+1.	Menelaah dokumen 
+2.	Melakukan observasi
+3.	Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Kompetensi supervisi adalah kemampuan kepala sekolah dalam merencanakan, melaksnakan, dan menindaklanjuti hasil pemantauan akademis.
+Petunjuk Telaah Dokumen:
+1.	Program supervisi
+2.	Hasil supervisi
+3. Laporan tindak lanjut hasil supervisi</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Laboran  adalah orang yang bekerja di laboratorium/ruang praktek.
+2.	Sertifikat industri adalah sertifikat yang diberikan oleh industri setelah seseorang dinyatakan lulus uji kompetensi yang diselenggarakan industri.
+Petunjuk Telaah Dokumen:
+1.	Data laboran
+2. Data sertifikat laboran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Kurikulum industri adalah kurikulum yang terintegrasi dan disusun bersama dengan IDUKA. 
+Petunjuk Telaah Dokumen:
+1. Dokumen kurikulum berstandar industri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	KKNI (Kerangka Kualifikasi Nasional Indonesia) adalah kerangka penjenjangan kualifikasi SDM yang menyandingkan, menyetarakan, dan mengintegrasikan sektor pendidikan dan pelatihan.
+2.	SKKNI (Standar Kompetensi Kerja Nasional Indonesia) adalah acuan standar kemampuan kerja yang meliputi aspek pengetahuan, ketrampilan, dan sikap kerja yang sesuai dengan aturan yang berlaku.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait 
+1.	Dokumen kurikulum skema KKNI/SKKNI </t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Alat praktek adalah alat yang  digunakan dalam pembelajaran  praktek di sekolah.
+2.	Rasio adalah perbandingan porsi  jumlah ketersediaan dan  kebutuhan.
+Petunjuk Telaah Dokumen:
+1.	Menelaah dokumen 
+2.	Melakukan observasi
+3. Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Berstandar industri adalah sesuai dengan spesifikasi yang dipersyaratkan industri .
+Petunjuk Telaah Dokumen:
+1.   Menelaah dokumen 
+2.	Melakukan observasi
+3. Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Finasial adalah sesuatu yang berhubungan dengan keuangan atau pembiayaan .
+Petunjuk Telaah Dokumen:
+1.  Menelaah dokumen 
+2.	Melakukan observasi
+3. Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Finansial adalah sesuatu yang berhubungan dengan keuangan atau pembiayaan .
+Petunjuk Telaah Dokumen:
+1.  Menelaah dokumen 
+2.	Melakukan observasi
+3. Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Pemerintah pusat adalah  penyelenggara pemerintah NKRI di pusat, yang dipimpin oleh Presiden dan Wakil Presiden dan dibantu oleh para menteri.
+2.	Pemerintah daerah adalah penyelenggara pemerintahan daerah menurut asas otonomi dan tugas pembantuan dengan prinsip otonomi seluas-luasnya dalam sistem dan prinsip Negara Kesatuan Republik Indonesia sebagaimana dimaksud dalam Undang-Undang Dasar 1945.
+3.	BOS adalah bantuan oprasional sekolah dari pemerintah pusat.
+4.	BOPD adalah bantuan oprasional sekolah dari pemerintah provinsi (untuk sekolah negeri).
+5.	BPMU adalah bantuan oprasional sekolah dari pemerintah provinsi (untuk sekolah swasta).
+Petunjuk Telaah Dokumen:
+1.  Menelaah dokumen 
+2.  Melakukan observasi
+3.  Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Komite sekolah  adalah badan mandiri yang mewadahi peran serta masyarakat dalam rangka meningkatkan mutu, pemerataan, dan efisiensi pengelolaan  endidikan di satuan  endidikan.
+Petunjuk Telaah Dokumen:
+1.  Menelaah dokumen 
+2.  Melakukan observasi
+3.  Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Aspek adalah pemunculan atau penginterpretasian gagasan, masalah, situasi, dsb sebagai pertimbangan yang dilihat dari sudut pandang tertentu.
+Petunjuk Telaah Dokumen:
+1.  Menelaah dokumen 
+2.  Melakukan observasi
+3.  Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Dinas Tenaga Kerja adalah dinas yang mengurusi hal ihwal ketenagakerjaan.
+Petunjuk Telaah Dokumen:
+1.  Menelaah dokumen 
+2.  Melakukan observasi
+3.  Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Mitra industri adalah industri yang memiliki hubungan kemitraan dalam satu atau beberapa aspek.
+Petunjuk Telaah Dokumen:
+1.  Menelaah dokumen 
+2.  Melakukan observasi
+3.  Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi 
+1.	Proses pembelajaran diarahkan kepada proses belajar, artinya siswa yang belajar. Fungsi guru adalah mengupayakan siswa belajar sehingga mencapai kompetensi yang dicantumkan dalam kompetensi dasar dan mengarah kepada berpikir tingkat tinggi (jika menggunakan taksonomi Bloom, Cognitive-4 atau C4, Cognitive-5 atau C5, dan Cognitive-6 atau C). 
+2.	Proses pembelajaran terdiri dari kegiatan pendahuluan, kegiatan inti dan penutup. Sesuai dengan prinsip kerucut Dale, siswa akan mencapai pemahaman lebih baik jika mencoba-coba sendiri, berdiskusi dengan teman dan yang tertinggi jika diberi kesempatan menjelaskan kepada orang lain. 
+3.	Kegiatan pendahuluan diawali dengan memotivasi siswa untuk mengikuti pelajaran dengan mengaitkan dengan kehidupan riil dan familiar yang dekat dengan siswa serta mengungkapkan pengetahuan awal siswa yang berhubungan dengan materi yang akan diajarkan.
+4.	 Kegiatan inti merupakan langkah-langkah kegiatan yang dilakukan oleh siswa dan guru dalam mendapatkan pengalaman belajar yang bermakna. 
+5.	Kegiatan penutup berupa pengambilan kesimpulan hasil pembelajaran dan refleksi dari hasil pembelajaran yang telah dilalui. 
+6.	Idealnya proses pembelajaran mengikuti sintaks seperti dirancang dalam RPP. Namun guru harus dapat membuat siswa termotivasi belajar dan menikmati proses pembelajaran. Oleh karena itu jika ternyata siswa tidak antusias belajar dan atau siswa sulit memahami materi ajar, maka guru harus segera mengubah sintaks bahkan strategi pembelajaran. Kejadian seperti itu dicatat dalam jurnal pembelajaran sebagai pertimbangan menyempurnakan RPP pada waktu selanjutnya. 
+7.	Jurnal /catatan harian guru berisi catatan kegiatan yang ditulis secara rinci tentang pelaksanaan pembelajaran. 
+8.	Dokumen supervisi kepala sekolah/madrasah berisi catatan hasil supervisi kepala sekolah/madrasah pada kegiatan pembelajaran.
+Petunjuk Telaah Dokumen 
+Lakukan telaah dokumen terkait kegiatan dan program guru dalam melaksanakan pembelajaran sesuai RPP dan deskripsikan hasil telaah yang mencakup: dokumen RPP, jurnal/catatan harian guru dan dokumen supervisi kepala sekolah/madrasah.
+</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Sarana pendidikan adalah semua fasilitas yang diperlukan dalam proses belajar mengajar, baik yang bergerak maupun yang tidak bergerak agar pencapaian tujuan pendidikan dan berjalan dengan lancar, teratur, efektif dan efisien. 
+2.	Prasarana pendidikan adalah fasilitas yang secara tidak langsung menunjang jalannya proses pendidikan, seperti : halaman, kebun, kolam, atau taman sekolah, dan sebagainya. 
+▪ Dapat mendukung kegiatan pembelajaran sesuai karakteristik setiap mata pelajaran yang ada. 
+▪ Memenuhi aturan keamanan 
+▪ Harus sesuai dengan karakteristik alamiah anak 
+▪ Harus didasarkan pada kebutuhan anak dan 
+▪ secara estetis harus menyenangkan.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen tentang:
+1.	Rencana Pelaksanaan Pembelajaran (RPP) terutama dalam hal penggunaan media dan sumber belajar 
+2.	dokumen tentang sarana dan prasarana yang bisa digunakan dalam pembelajaran 
+3.	tata tertib pemanfaatan sarana prasarana memuat beberapa anjuran dan larangan ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi: 
+a.	Penilaian adalah proses pengumpulan dan pengolahan informasi untuk mengukur pencapaian hasil belajar peserta didik. dalam rangka memperbaiki proses pembelajaran. 
+b.	Penilaian hasil belajar oleh pendidik bertujuan untuk memantau dan mengevaluasi proses, dan daya serap peserta didik
+Petunjuk Telaah Dokumen:
+1.	Menelaah dokumen RPP, Instrumen penilaian pengetahuan, sikap, keterampilan 
+2.	Melakukan observasi pelaksanaan penilaian proses dan penilaian hasil belajar
+3.	Menelaah jurnal/catatan harian guru untuk mengetahui kapan penilaian hasil belajar dilakukan. Apakah penilaian proses dilakukan dan dengan cara apa. 
+4.	Melihat kelengkapan dokumen penilaian, antara lain soal dan angket yang digunakan, nilai atau skor yang diperoleh. 
+5.	Menelaah dokumen lain yang memuat catatan penggunaan hasil penilaian dalam diskusi dengan guru lain, melihat bukti bahwa hasil penilaian telah digunakan untuk merevisi RPP dan sebagainya. 
+6.	Melakukan wawancara terhadap guru/guru pembimbing, dan siswa </t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Praktik kerja industri (Prakerin) adalah kegiatan pendidikan, pelatihan, dan pembelajaran di bidang usaha atau industri (IDUKA) yang relevan sesuai bidangnya. Dalam pelaksanaannya, prakerin dilakukan dengan prosedur tertentu dan mematuhi ketentuan yang diterapkan oleh IDUKA. 
+2.	Kualitas Prakerin yang dilaksanakan sekolah dinilai dari: 
+1) Relevansi kompetensi keahlian siswa dengan jenis IDUKA  lokasi prakerin; 
+2) Kesesuaian kompetensi keahlian siswa dengan job description (pembagian kerja) selama prakerin; 
+3) Kecukupan waktu prakerin; dan 
+4) Laporan dan hasil evaluasi prakeri. 
+3.	Kecukupan waktu prakerin siswa adalah selama 6 - 12 bulan di DUDI. 
+Petunjuk Telaah Dokumen :
+Lakukan telaah untuk dokumen:
+1.	Dokumen laporan prakerin siswa 
+2.	Daftar perusahaan/dudi mitra prakerin 
+3.	Dokumen MoU prakerin antara Sekolah dan Perusahaan/DUDI. 
+4.	Fotokopi sertifikat peserta prakerin 
+5.	Dokumen evaluasi dan rekomendasi hasil prakerin</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Praktik kerja industri (Prakerin) adalah kegiatan pendidikan, pelatihan, dan pembelajaran di bidang usaha atau industri (DUDI) yang relevan sesuai bidangnya. Dalam pelaksanaannya, prakerin dilakukan dengan prosedur tertentu dan mematuhi ketentuan yang diterapkan oleh DUDI. 
+2.	Kualitas Prakerin yang dilaksanakan sekolah dinilai dari: 
+1) Relevansi kompetensi keahlian siswa dengan jenis DU/DI lokasi prakerin; 
+2) Kesesuaian kompetensi keahlian siswa dengan job description (pembagian kerja) selama prakerin; 
+3) Kecukupan waktu prakerin; dan 
+4) Laporan dan hasil evaluasi prakeri. 
+3.	Kecukupan waktu prakerin siswa adalah selama 6 – 12  bulan di DUDI.
+Pembuktian Kinerja :
+Telaah dokumen
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen yang terkait dengan :
+1.	Dokumen laporan prakerin siswa 
+2.	Daftar perusahaan/dudi mitra prakerin 
+3.	Dokumen MoU prakerin antara Sekolah dan Perusahaan/DUDI. 
+4.	Fotokopi sertifikat peserta prakerin 
+5.	Dokumen evaluasi dan rekomendasi hasil prakerin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Pengelolaan kurikulum adalah upaya sekolah dalam mengembangkan, mengimplementasikan dan mengevaluasi pelaksanaan kurikulum tingkat satuan pendidikan di sekolahnya secara sistematik dan berkelanjutan, dengan melibatkan berbagai pemangku kepentingan (guru, siswa, orang tua, pengawas, dinas pendidikan, dunia usaha, organisasi masyarakat atau pihak lain yang terkait). 
+2.	Kurikulum Tingkat Satuan Pendidikan (KTSP) adalah kurikulum operasional yang disusun oleh dan dilaksanakan di masing-masing satuan pendidikan".
+3.	Prosedur pengembangan kurikulum dilakukan melalui tahapan (1) analisis konteks, (2) menyusun draf atau melakukan review dokumen dalam bentuk workshop, (3) penyelarasan dengan DUDI yang relevan, (4) penetapan oleh kepala sekolah, (5) pengesahan oleh Dinas Pendidikan Provinsi.
+Pembuktian Kinerja :
+1.	Menelaah dokumen berupa (1) bukti analisis konteks, (2) dokumen kurikulum tingkat satuan pendidikan, silabus, RPP, kalender akademik, program tahunan, program semester, dll. (3) notulen rapat/workshop pengembangan kurikulum dan hasil, (4) hasil evaluasi kurikulum, (5) laporan kegiatan, dll. 
+2.	Mengamati bukti-bukti yang menunjukkan bahwa pengelolaan kurikulum memiliki dampak terhadap peningkatan mutu/prestasi sekolah, misalnya ada peningkatan prestasi siswa pada bidang akademik dan non akademik, peningkatan kinerja guru, peningkatan mutu budaya sekolah, dll. 
+3.	Wawancara/FGD dengan guru, komite sekolah, dinas pendidikan, pengguna, dunia usaha, dll.
+Petunjuk Telaah Dokumen :
+Petunjuk Telaah Dokumen Lakukan telaah dokumen sebagai bukti adanya pengembangan kurikulum di sekolah. Deskripsikan hasil telaah yang mencakup perencanaan, pelaksanaan, dan evaluasi kurikulum. Dokumen laporan prakerin siswa 
+1.	Dokumen kurikulum secara utuh 
+2.	Dokumen hasil penyelarasan dengan DUDI 
+3.	Bukti keterlibatan DUDI dalam pengembangan kurikulum. 
+4.	Silabus 
+5.	RPP 
+6.	Program tahunan 
+7.	Program semesteran 
+8.	Kalender akademik 
+9.	Dokumen pengembangan kurikulum seperti notulen rapat, SK Tim, absensi kegiatan, dsb. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Pembelajaran
+2.	Bakat adalah 
+3.	Psikotes adalah 
+Pembuktian Kinerja :
+1.	Menelaah dokumen 
+2.	Melakukan observasi
+3.	Melaksanakan wawancara
+Petunjuk Telaah Dokumen :
+1.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Unit produksi merupakan suatu sarana pembelajaran dan berwirausaha bagi siswa dan guru serta memberi dukungan biaya operasional sekolah. Sarana pembelajaran yang dimaksud adalah tempat belajar bagi guru dan siswa untuk meningkatkan kemampuan pengetahuan, keterampilan dan pembentukan sikap kerja, karena dalam kegiatan unit produksi terdapat proses belajar secara langsung dalam menghadapi permasalahan kerja sesungguhnya. Makna unit produksi sebagai sarana berwirausaha karena guru dan siswa berlatih menjaga kelangsungan kegiatan unit produksi melalui pengembangan pemasaran dan menjaga kepercayaan konsumen. Makna sebagai penghasil dana masukan adalah kegiatan unit produksi menghasilkan produk atau jasa bernilai ekonomi, sehingga pengelola dan pelaksana mendapat imbalan jasa. Selain itu keuntungan dari hasil penjualan barang / jasa dapat digunakan sebagai biaya operasional sekolah. (Dir. PSMK : 2007) 
+2.	Unit produksi sekolah menengah kejuruan adalah suatu proses kegiatan usaha yang dilakukan sekolah / madrasah dan lingkungan dalam bentuk unit usaha secara berkesinambungan, bersifat akademis dan bisnis dengan memberdayakan warga sekolah / madrasah dan lingkungan dalam bentuk unit usaha produksi / jasa yang dikelola secara profesional. (Bambang Sartono: 2006)
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk melihat
+1) keterlibatan siswa dalam unit produksi, 
+2) adanya POS/SOP, 
+3) adanya pengurus dan uraian tugasnya, 
+4) omset dan keuntungan, 
+5) cakupan layanan, dan 
+6) unit produksi bagian dari pembelajaran.
+</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Kelas industri merupakan program pengadaan kelas khusus dalam lingkungan SMK. Kelas ini dikelola secara bersama antara sekolah dengan Industri. Pada kelas industri pembelajarannya lebih spesifik dengan mengarah kepada sebuah produk, di mana ruang praktiknya di-setting seperti training center-nya industri dengan pembelajaran sesuai standar industri. Tidak hanya kurikulum, para pengajar/guru diberi pelatihan oleh industri selama kurang lebih satu bulan sesuai standar yang diinginkan perusahaan. Saat pembelajaran di kelas, beberapa kali pihak industri turut memberikan materi kepada siswa. 
+2.	Kelas wirausaha merupakan program pembelajaran yang bertujuan untuk menanamkan nilai kewirausahaan melalui pembiasaan, penanaman sikap dan pemeliharaan perilaku wirausaha. Kelas kewirausahaan menerapkan pengintegrasian mata pelajaran kewirausahaan pada setiap muatan produktif. 
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Program kelas wirausaha dan atau kelas industri tiga tahun terakhir. 
+2.	Kurikulum kelas industri (Buku I, II, dan II). 
+3.	Pengelola kelas industri dan atau kelas wirausaha yang dibuktikan dengan surat keputusan dan uraian tugas. 
+4.	Dokumen sarana dan prasarana kelas industri atau kelas wirausaha. 
+5.	Bukti kerja sama dengan pihak luar sekolah dalam penyelenggaraan kelas khusus. 
+6.	Pelaksanaan pembelajaran dan penilaian di kelas wirausaha atau kelas industri. 
+7.	Bukti evaluasi penyelenggaraan kelas industri atau kelas wirausa</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Produk adalah hasil proses produksi yang dilakukan oleh produsen atau perusahaan yang nantinya akan dijual kepada konsumen yang membutuhkan.atau dapat juga dikatakan suatu barang/jasa yang memiliki nilai tambah atau memberikan kemanfaatan bagi penggunanya yang dihasilkan dari proses produksi.
+2.	Produk teaching factory adalah produk yang dihasilkan oleh sekolah melalui kegiatan teaching factory atau unit produksi masing-masing kompetensi keahlian yang ada di sekolah
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Rancangan design produk yang akan dihasilkan
+2.	Produk yang telah di hasilkan
+3.	Pengepakan produk</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Pemesanan barang adalah proses permintaan yang dibuat oleh pihak pertama kepada pihak kedua untuk membuat produk atau memberikan jasa sesuai dengan kebutuhan pihak pertama
+2.	Pengepakan merupakan sistem yang terkoordinasi untuk menyiapkan barang menjadi siap untuk ditransportasikan, didistribusikan, disimpan, dijual, dan dipakai
+3.	Pemasaran adalah suatu kegiatan menyeluruh, terpadu, dan terencana, yang dilakukan oleh sebuah organisasi atau institusi dalam melakukan usaha agar mampu mengakomodir permintaan pasar dengan cara menciptakan produk bernilai jual, menentukan harga, mengkomunikasikan, menyampaikan, dan saling bertukar tawaran yang bernilai bagi konsumen, klien, mitra, dan masyarakat umum.
+4.	sekolah sudah memiliki produk yang telah di lakukan quality assurance oleh pihak IDUKA
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	rekap pesanan produk dari pihak lain
+2.	Labeling quality assurance dari IDUKA
+3.	Kumpulan Produk di Gudang sekolah
+4.	Dokumen pengiriman produk</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	RPP yang lengkap yang memuat komponen Identitas sekolah dan identitas mapel, tujuan pembelajaran berdasarkan KD, Indikator pencapaian Kompetensi, materi pembelajaran, strategi pembelajaran yang digunakan untuk mencapai KD yang sesuai karakteristik peserta didik, media pembelajaran sebagai alat bantu proses pembelajaran (termasuk IT), sumber belajar yang relevan seperti buku dan lingkungan sekitar, 
+2.	tahapan pembelajaran(pendahuluan, inti dan penutup) serta penilaian hasil pembelajaran
+3.	Pembelajaran aktif antara lain dapat dilihat dari aktivitas KBM yang menempatkan siswa sebagai subyek dalam kegiatan pembelajaran, misalnya 5M (mengamati, mempertanyakan, melakukan pengumpulan data/informasi, menganalisis, dan mengomunikasikan hasil). 
+4.	Pembelajaran kreatif dan inovatif yaitu pembelajaran yang memfasilitasi siswa menjadi kreatif dan inovatif, antara lain dapat dilihat dari tugas yang harus diselesaikan siswa, misalnya merancang penyelidikan sederhana, melakukan wawancara ke masyarakat, melakukan tugas proyek, atau menghasilkan produk tertentu berdasarkan ide-ide siswa sendiri. 
+5.	Pengoptimalan lingkungan sekitar, antara lain dapat dilihat dari media atau sumber belajar yang digunakan, misalnya memanfaatkan kebun sekolah, memanfaatkan barang bekas atau bahan-bahan yang ada di sekitarnya, mewawancarai warga sekitar rumah, mengunjungi bengkel atau home industry dekat sekolah, dan lain-lain. 
+6.	Pemanfaatan TIK antara lain dapat dilihat dari aktivitas meminta siswa melakukan searching internet untuk menggali informasi, menggunakan video untuk kegiatan pendahuluan atau penutup, menggunakan software aplikasi dalam pengumpulan data, menggunakan power point dalam menguatkan materi, dan lain-lain
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Kelengkapan dokumen RPP 
+2.	Indikator 
+3.	Strategi/metode pembelajaran 
+4.	Tahapan pembelajaran 5
+5.	 Pemanfaatan Lingkungan 
+6.	Pemanfaatan TIK 7
+ Dokumen evaluasi dan refleksi</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Setiap guru mengembangkan profesionalismenya dengan melakukan evaluasi diri dan refleksi melalui bentuk/kegiatan antara lain pengembangan kompetensi guru adalah usaha perbaikan kinerja dari guru untuk mencapai kompetensi maksimal yang dapat dilakukan
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Dokumen hasil evaluasi diri 
+2.	Dokumen refleksi dan dokumen rencana tindak lanjut 
+3.	Dokumen bukti perbaikan kinerja yang dilakukan oleh guru 
+Dokumen bukti diskusi dan diseminasi dengan teman sejawat</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Segala kegiatan yang dilaksanakan seorang Guru yang bertujuan meningkatkan pengetahuan, keterampilan dan wawasan guru baik atas inisiatif sendiri atau difasilitasi oleh sekolah/madrasah
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Karya tulis yang dipublikasikan 
+2.	Karya tulis yang tidak dipublikasikan 
+3.	Bukti keikutsertaan kegiatan pengembangan profesi</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Kemampuan guru mengembangkan/memodifikasi strategi, model, metode, dan teknik pembelajaran aktif dan mendidik secara inovatif dan kreatif diwujudkan dalam bentuk kegiatan: 
+1. Mengembangkan strategi, model, dan teknik pembelajaran yang aktif dan mendidik. 
+2. Memodifikasi strategi, model, dan teknik pembelajaran yang aktif dan mendidik. 
+3. Mengimplementasikan hasil pengembangan/modifikasi strategi, model, metode pembelajaran dalam pembelajaran. 
+4. Menilai efektivitas hasil pengembangan/modifikasi strategi, model, dan teknik pembelajaran.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Hasil pengembangan/modifikasi strategi, model, dan teknik pembelajaran. 
+2.	Hasil evaluasi pengembangan/modifikasi strategi, model, metode pembelajaran 
+3. Bukti hasil penyebarluasan hasil pengembangan</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Program magang guru adalah untuk meningkatkan relevansi kompetensi keahlian guru produktif dengan perkembangan ilmu pengetahuan dan teknologi yang ada di dunia usaha dan di dunia  ndustry
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Program magang guru produktif. 
+2.	Daftar guru yang melaksanakan magang
+3.	Jurnal magang guru
+4.	Penilaian guru magang dari IDUKA
+5. Sertifikat magang</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+LSP-P1 Pendidikan adalah LSP yang didirikan oleh lembaga pendidikan dan atau pelatihan dengan tujuan utama melaksanakan sertifikasi kompetensi kerja terhadap peserta pendidikan/pelatihan berbasis kompetensi dilingkungannya dan /atau sumber daya manusia dari jejaring kerja lembaga induknya, sesuai ruang lingkup yang diberikan oleh BNSP
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Program pelatihan guru kejuruan dengan BNSP untuk LSP P1
+2.	Daftar guru yang melaksanakan pelatihan guru kejuruan dengan BNSP untuk LSP P1
+3.	Jadwal pelatihan guru kejuruan dengan BNSP untuk LSP P1
+4.	Penilaian pelatihan guru kejuruan dengan BNSP untuk LSP P1
+5. Sertifikat LSP P1</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Guru tamu merupakan guru yang didatangkan oleh sekolah dari luar sekolah (IDUKA atau organisasi penyedia guru tamu), dengan tujuan memberikan wawasan yang berbeda bagi siswa terkait mata pelajaran produktif. Wawasan ini biasanya terkait dengan kegiatan real di perusahaan tempat guru tamu bekerja sehari-hari.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Program mendatangkan guru tamu
+2.	Proses permohonan guru tamu
+3.	Jadwal guru tamu
+4.	Agenda pelaksanaan pembelajaran guru tamu
+5.	Daftar hadir guru tamu
+6.	Evaluasi program mendatangkan guru tamu yang disusun oleh sekolah dan guru tamu
+7. Tindak lanjut</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+instruktur merupakan guru yang didatangkan oleh sekolah dari luar sekolah (IDUKA), dengan tujuan memberikan bimbingan secara intensif bagi siswa terkait proses pelaksanaan pembelajaran mata pelajaran produktif. 
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Program mendatangkan insruktur
+2.	Proses permohonan insruktur
+3.	Jadwal insruktur
+4.	Agenda pelaksanaan pembelajaran insruktur 
+5.	Daftar hadir insruktur
+6.	Evaluasi program mendatangkan guru tamu yang disusun oleh sekolah dan insruktur
+7. Tindak lanjut</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+IDUKA adalah kepanjangan dari Industri, Dunia Usaha dan Dunia Kerja
+Sertifikasi IDUKA merupakan bentuk uji kompetensi keahlian siswa setelah melaksanakan praktik kerja/magang oleh pihak IDUKA penyelenggara dan dibuktikan melalui sertifikat hasil praktik kerja.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+1.	Sertifikat Kompetensi Siswa 
+2.	Jadwal Praktik Kerja/Magang IDUKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+KKNI (Kerangka Kualifikasi Nasional Indonesia) adalah kerangka penjenjangan kualifikasi sumber daya manusia Indonesia yang menyandingkan, menyetarakan, dan mengintegrasikan sektor pendidikan dengan sektor pelatihan dan pengalaman kerja dalam  suatu skema pengakuan kemampuan kerja yang disesuaikan dengan struktur di berbagai sektor pekerjaan. 
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+1.	Skema KKNI Level II/III SMK 
+2.	Sertifikat Kompetensi Siswa Berbasis LSP/BNSP
+3.	Daftar Siswa/Lulusan Tersertifikasi </t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Bekerja adalah melakukan kegiatan/pekerjaan paling sedikit satu jam berturut-turut selama seminggu yang lalu dengan maksud untuk memperoleh atau membantu memperoleh pendapatan atau keuntungan.
+Berwirausaha adalah suatu kegiatan usaha yang melibatkan kemampuan untuk melihat kesempatan-kesempatan usaha yang kemudian mengorganisisr, mengatur, mengambil resiko, dan mengembangkan usaha yang diciptakan tersebut guna meraih keuntungan.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+1.	Daftar rekap jumlah siswa tahun terakhir
+2.	Daftar rekap penelusuran keterserapan siswa satu tahun terakhir</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Gaji adalah suatu bentuk pembayaran secara berkala dari seorang majikan pada karyawannya yang dinyatakan dalam suatu kontrak kerja.
+UMR adalah singkatan dari Upah Minimum Regional yang merupakan suatu standar minimum yang digunakan oleh para pengusaha atau pelaku industri untuk memberikan upah kepada pekerja, pegawai ataupun buruh di dalam lingkungan usaha atau kerjanya.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+1.	Daftar rekap jumlah siswa tahun terakhir
+2.	Daftar rekap penelusuran keterserapan siswa satu tahun terakhir
+1.	Daftar gaji siswa yang bekerja</t>
+  </si>
+  <si>
+    <t>Bobot</t>
+  </si>
+  <si>
+    <t>Capaian 1</t>
+  </si>
+  <si>
+    <t>Capaian 2</t>
+  </si>
+  <si>
     <t>Capaian 5</t>
   </si>
   <si>
@@ -1143,13 +1664,7 @@
     <t>Capaian 3</t>
   </si>
   <si>
-    <t>Capaian 2</t>
-  </si>
-  <si>
-    <t>Capaian 1</t>
-  </si>
-  <si>
-    <t>Bobot</t>
+    <t>Petunjuk Pengisian</t>
   </si>
 </sst>
 </file>
@@ -1238,34 +1753,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1285,73 +1776,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1661,70 +2160,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39974C29-4F78-416A-8A0F-B191B27EFFC3}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="70.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="83.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="97.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="94.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="90.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="63.5703125" style="1"/>
+    <col min="12" max="12" width="97.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="63.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="9">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1751,15 +2254,18 @@
       <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="150.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1786,15 +2292,18 @@
       <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1821,15 +2330,18 @@
       <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1856,15 +2368,18 @@
       <c r="K5" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1891,15 +2406,18 @@
       <c r="K6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1926,15 +2444,18 @@
       <c r="K7" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1961,15 +2482,18 @@
       <c r="K8" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1996,15 +2520,18 @@
       <c r="K9" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2031,15 +2558,18 @@
       <c r="K10" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2066,15 +2596,18 @@
       <c r="K11" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2101,15 +2634,18 @@
       <c r="K12" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="9">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2136,15 +2672,18 @@
       <c r="K13" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="9">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2171,15 +2710,18 @@
       <c r="K14" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2206,15 +2748,18 @@
       <c r="K15" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="9">
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2241,15 +2786,18 @@
       <c r="K16" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="9">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2276,15 +2824,18 @@
       <c r="K17" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="9">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2311,15 +2862,18 @@
       <c r="K18" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="9">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2346,15 +2900,18 @@
       <c r="K19" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="9">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2381,15 +2938,18 @@
       <c r="K20" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="9">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2416,1096 +2976,1173 @@
       <c r="K21" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="L21" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="6">
         <v>8</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="L22" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="6">
         <v>8</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="L23" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>8</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="L24" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="300" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <v>8</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="L25" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6">
         <v>8</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="L26" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="408" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6">
         <v>4</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="L27" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="6">
         <v>4</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="L28" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <v>4</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="L29" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>4</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="L30" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="6">
         <v>4</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="L31" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="6">
         <v>4</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="L32" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="6">
         <v>4</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="L33" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="6">
         <v>4</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="L34" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="6">
         <v>4</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="L35" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="6">
         <v>4</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="L36" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="6">
         <v>4</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="L37" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="6">
         <v>4</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="L38" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="6">
         <v>4</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="L39" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="6">
         <v>4</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="L40" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="6">
         <v>4</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="14">
         <v>0</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="14">
         <v>0</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="14">
         <v>0</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="14">
         <v>0</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="5">
         <v>10</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="L42" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="5">
         <v>10</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="L43" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="7">
         <v>5</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="L44" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="7">
         <v>5</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="L45" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="7">
         <v>5</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="2">
         <v>0</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="2">
         <v>0</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="2">
         <v>0</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="2">
         <v>0</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="7">
         <v>5</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="2">
         <v>0</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="2">
         <v>0</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="2">
         <v>0</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="2">
         <v>0</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="7">
         <v>5</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="2">
         <v>0</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="2">
         <v>0</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="2">
         <v>0</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="2">
         <v>0</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="7">
         <v>5</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="2">
         <v>0</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="2">
         <v>0</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="2">
         <v>0</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="2">
         <v>0</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="8">
         <v>3</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="2">
         <v>0</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="2">
         <v>0</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="2">
         <v>0</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="2">
         <v>0</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="8">
         <v>3</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="2">
         <v>0</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="2">
         <v>0</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="2">
         <v>0</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="2">
         <v>0</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="8">
         <v>3</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="2">
         <v>0</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="2">
         <v>0</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="2">
         <v>0</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="2">
         <v>0</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="2">
         <v>0</v>
       </c>
+      <c r="L52" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/public/template_instrumen.xlsx
+++ b/public/template_instrumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AA8109-E911-4192-A330-9AB47E47D838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4782CE9E-7C4A-41D3-BC92-5D810FC5D820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{F29D22C7-93BF-4282-9F88-0AB83B9FEE47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="540">
   <si>
     <t>Komponen</t>
   </si>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>Meningkatnya Kemampuan Lulusan dalam Mengembangkan Diri</t>
-  </si>
-  <si>
-    <t>Pengembangan kewirausahaan lulusan</t>
   </si>
   <si>
     <t>Keunggulan SDM sekolah</t>
@@ -1664,36 +1661,6 @@
 </t>
   </si>
   <si>
-    <t>Siswa/lulusan sekolah yang  memiliki minat berwirausaha mendapatkan program tindaklanjut pembinaan pengembangan bisnis/business coaching atau inkubator bisnis yang difasilitasi sekolah atau pihak lain.</t>
-  </si>
-  <si>
-    <t>76%-100% dari jumlah siswa terdata berwirausaha (tiga tahun terakhir) di sekolah mengikuti program pengembangan bisnis/inkubator bisnis yang difasilitasi sekolah/pihak lain</t>
-  </si>
-  <si>
-    <t>51%-75% dari jumlah siswa terdata berwirausaha (tiga tahun terakhir) di sekolah mengikuti program pengembangan bisnis/inkubator bisnis yang difasilitasi sekolah/pihak lain</t>
-  </si>
-  <si>
-    <t>26%-50% dari jumlah siswa terdata berwirausaha (tiga tahun terakhir) di sekolah mengikuti program pengembangan bisnis/inkubator bisnis yang difasilitasi sekolah/pihak lain</t>
-  </si>
-  <si>
-    <t>1%-25% dari jumlah siswa terdata berwirausaha (tiga tahun terakhir) di sekolah mengikuti program pengembangan bisnis/inkubator bisnis yang difasilitasi sekolah/pihak lain</t>
-  </si>
-  <si>
-    <t>Siswa yang terdata berwirausaha (tiga tahun terakhir) di sekolah tidak mengikuti program pengembangan bisnis/inkubator bisnis yang difasilitasi sekolah/pihak lain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definisi :
-Inkubator bisnis adalah perusahaan / lembaga yang memberikan suatu program yang didesain untuk membina dan mempercepat keberhasilan pengembangan bisnis melalui rangkaian program permodalan yang diikuti oleh dukungan kemitraan / pembinaan elemen bisnis lainnya dengan tujuan menjadikan usaha tersebut menjadi perusahaan yang profitable, memiliki pengelolaan organisasi dan keuangan yang benar, serta menjadi perusahaan yang sustainable, hingga akhirnya memiliki dampak positif bagi masyarakat.
-Business Coaching adalah program pembinaan atau konsultasi seputar permodalan/keuangan, marketing, SDM, produksi, dan aspek pengelolaan bisnis lainnya kepada para startup (pebisnis pemula) dalam mengembangkan bisnis sehingga dapat berkembang menjadi suatu perusahaan yang mapan.
-Petunjuk Telaah Dokumen :
-Lakukan telaah dokumen untuk :
-1.	Prosedur Mutu (POS)/Instruksi Kerja Penelusuran Tamatan
-2.	Data rekapitulasi penelusuran siswa/lulusan yang berwirausaha dalam tiga tahun terakhir
-3.	Program pelaksanaan pembinaan bisnis/inkubator bisnis bagi para siswa berwirausaha
-4.	Data rekapitulasi siswa/lulusan yang mengikuti pembinaan bisnis/inkubator bisnis
-</t>
-  </si>
-  <si>
     <t>Persentase kompetensi keahlian di sekolah yang menyelenggarakan model pembelajaran TeFa (Teaching Factory)</t>
   </si>
   <si>
@@ -1946,223 +1913,271 @@
     <t>Petunjuk Pengisian</t>
   </si>
   <si>
-    <t>Minat dan bakat</t>
-  </si>
-  <si>
-    <t>Sekolah melaksanakan penjurusan siswa berdasarkan minat dan bakat</t>
-  </si>
-  <si>
-    <t>Prestasi akademis</t>
-  </si>
-  <si>
-    <t>Sekolah melaksanakan penjurusan siswa berdasarkan prestasi akademik meliputi mata pelajaran Bahasa Indonesia, Bahasa Inggris, Matematika, dan IPA</t>
-  </si>
-  <si>
-    <t>Kompetensi guru kejuruan berstandar industri/Sertifikasi Teknis</t>
-  </si>
-  <si>
-    <t>Guru memiliki kompetensi kejuruan berstandar industri/sertifikasi teknis</t>
-  </si>
-  <si>
-    <t>Guru kejuruan melaksanakan magang</t>
-  </si>
-  <si>
-    <t>Guru per kompetensi kejuruan melaksanakan magang di IDUKA</t>
-  </si>
-  <si>
-    <t>Guru kejuruan memiiki etos/budaya kerja IDUKA</t>
-  </si>
-  <si>
-    <t>Guru kejuruan memiliki etos/budaya kerja IDUKA berdasarkan tampilan fisik, sikap harian, dan sikap saat melaksanakan pembelajaran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kompetensi Kewirausahaan Kepala Sekolah </t>
-  </si>
-  <si>
-    <t>Kompetensi supervisi akademik Kepala Sekolah</t>
-  </si>
-  <si>
-    <t>Kurikulum</t>
-  </si>
-  <si>
-    <t>Sekolah memiliki kurikulum berstandar industri</t>
-  </si>
-  <si>
-    <t>Kurikulum mengacu pada Skema KKNI/SKKNI</t>
-  </si>
-  <si>
-    <t>Sarana-Prasarana</t>
-  </si>
-  <si>
-    <t>Sekolah memiliki alat dan ruang praktik berstandar industri yang sesuai</t>
-  </si>
-  <si>
-    <t>Finansial</t>
-  </si>
-  <si>
-    <t>Dukungan dari masyarakat/industri</t>
-  </si>
-  <si>
-    <t>Sekolah memiliki dukungan finansial dari masyarakat/industri</t>
-  </si>
-  <si>
-    <t>Dukungan dari industri</t>
-  </si>
-  <si>
-    <t>Sekolah memiliki dukungan finansial dari industri</t>
-  </si>
-  <si>
-    <t>Dukungan dari pemerintah (pusat/daerah)</t>
-  </si>
-  <si>
-    <t>Organisasi Pengelola</t>
-  </si>
-  <si>
-    <t>Peran Komite Sekolah</t>
-  </si>
-  <si>
-    <t>Sekolah memiliki dukungan peran dari Komite Sekolah terkait keterlibatan industri, finansial, dan ide pengelolaan sekolah</t>
-  </si>
-  <si>
-    <t>Sekolah memiliki dukungan dari Dinas Pendidikan Daerah dalam aspek bantuan finansial, sarana prasarana, kemudahan ijin, validasi dan verifikasi kegiatan</t>
-  </si>
-  <si>
-    <t>Dukungan Dinas Terkait</t>
-  </si>
-  <si>
-    <t>Sekolah memiliki dukungan dari Dinas Terkait meliputi penyerapan lulusan, memfasilitasi kemitraan dengan IDUKA, peningkatan kompetensi siswa, dan kemudahan ijin</t>
-  </si>
-  <si>
-    <t>IDUKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bentuk kerjasama dan dukungan IDUKA </t>
-  </si>
-  <si>
-    <t>Sekolah memiliki bentuk kerjasama dan dukungan IDUKA dari aspek sinkronisasi kurikulum dan pelaksanaannya, perekrutan lulusan, magang guru, dan sertifikasi kompetensi</t>
-  </si>
-  <si>
-    <t>Selaksanakan pembelajaran sesuai dengan RPP dan melibatkan aktivitas siswa untuk mengembangkan kemampuan berpikir tingkat tinggi</t>
-  </si>
-  <si>
-    <t>Selaksanakan penilaian proses dan hasil belajar serta menggunakan hasilnya sebagai dasar perbaikan program berikutnya.</t>
-  </si>
-  <si>
-    <t>Selaksanakan pembelajaran di luar kelas seperti kunjungan IDUKA</t>
-  </si>
-  <si>
-    <r>
-      <t>Penyesuaian KK/ Kurikulum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>Sinkoronisasi dan validasi kurikulum dengan IDUKA</t>
-  </si>
-  <si>
-    <t>Sekolah/madrasah mengembangkan, menyelaraskan, mengimplementasikan dan mengevaluasi pelaksanaan kurikulum secara sistematik, prosedural dan efektif</t>
-  </si>
-  <si>
-    <t>Penyelenggaraan TEFA/UP</t>
-  </si>
-  <si>
-    <t>Pelaksanaan pembelajaran berbasis industri</t>
-  </si>
-  <si>
-    <t>Selaksanakan pembelajaran dengan mendasarkan pada pekerjaan nyata, autentik, dan penanaman budaya kerja melalui pembelajaran industri (teaching factory) untuk mendapatkan pembiasaan berpikir dan bekerja dengan kualitas seperti di tempat kerja/usaha</t>
-  </si>
-  <si>
-    <t>Senyelenggarakan unit produksi.</t>
-  </si>
-  <si>
-    <t>Senyelenggarakan kelas khusus (kelas industri atau kelas wirausaha)</t>
-  </si>
-  <si>
-    <t>Sekolah memiliki produk/jasa sebagai hasil dari pembelajaran teaching factory/unit produksi</t>
-  </si>
-  <si>
-    <t>Sekolah melaksanakan program peningkatan kompetensi profesional guru </t>
-  </si>
-  <si>
-    <t>Program peningkatan tenaga kependidikan</t>
-  </si>
-  <si>
-    <t>Praktik Kerja Industri Siswa</t>
-  </si>
-  <si>
-    <t>Sekolah melaksanakan program magang guru, melaporkan dan mengevaluasi kegiatan magang guru di IDUKA</t>
-  </si>
-  <si>
-    <t>Sekolah telah Menyusun jadwal instruktur dari IDUKA yang relevan untuk melaksanakan pembimbingan siswa di sekolah</t>
-  </si>
-  <si>
-    <t>Mentoring project berbasis order/kebutuhan pasar</t>
-  </si>
-  <si>
-    <t>Sekolah Menyusun jadwal IDUKA untuk memonitoring pelaksanaan pembuatan project berbasis order/kebutuhan pasar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pelaksanaan budaya kerja </t>
-  </si>
-  <si>
-    <t>Sekolah melaksanakan uji kompetensi dengan IDUKA yang relevan atau dengan LSP/BNSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutu lulusan berstandar industri </t>
-  </si>
-  <si>
-    <t>Persentase lulusan dalam 1 tahun yang melanjutkan pendidikan ke tingkat yang lebih tinggi</t>
-  </si>
-  <si>
-    <t>Persentase siswa/lulusan yang mengikuti program pembinaan bisnis/inkubator bisnis</t>
-  </si>
-  <si>
-    <t>Pengembangan karir bekerja</t>
-  </si>
-  <si>
-    <t>Persentase siswa/lulusan yang bekerja sesuai bidangnya</t>
-  </si>
-  <si>
-    <t>Berkembangnya kelembagaan SMK (TEFA/UP, SDM Sekolah, Perolehan Dukungan)</t>
-  </si>
-  <si>
-    <t>Implementasi Tefa/UP</t>
-  </si>
-  <si>
-    <t>Persentase KK yang menyelenggarakan Tefa</t>
-  </si>
-  <si>
-    <t>Profil sukses alumni</t>
-  </si>
-  <si>
-    <t>Prestasi akademik dan non-akademik siswa dan guru</t>
-  </si>
-  <si>
-    <t>Jumlah SDM SMK yang dimanfaatkan keahlianya oleh IDUKA</t>
-  </si>
-  <si>
-    <t>Jumlah guru dan Kepala sekolah SMK yang memperoleh program sertifikasi kompetensi dari industri</t>
-  </si>
-  <si>
-    <t>Meningkatnya jumlah pendaftar calon peserta didik baru</t>
-  </si>
-  <si>
-    <t>Jumlah partisipasi dukungan masyarakat terhadap program sekolah</t>
-  </si>
-  <si>
-    <t>BLUD (Badan Layanan Umum Daerah)</t>
-  </si>
-  <si>
     <t>Atribut</t>
+  </si>
+  <si>
+    <t>Minat dan Bakat</t>
+  </si>
+  <si>
+    <t>Melaksanakan penjurusan siswa berdasarkan minat dan bakat</t>
+  </si>
+  <si>
+    <t>Prestasi Akademis</t>
+  </si>
+  <si>
+    <t>Melaksanakan penjurusan siswa berdasarkan prestasi akademis</t>
+  </si>
+  <si>
+    <t>Peta kompetensi SDM dan program pengembangannya</t>
+  </si>
+  <si>
+    <t>Kompetensi Kejuruan berstandar industri/sertifikasi teknis</t>
+  </si>
+  <si>
+    <t>Kompetensi kejuruan berstandar industri/sertifikasi teknis yang dimiliki guru</t>
+  </si>
+  <si>
+    <t>Guru Magang</t>
+  </si>
+  <si>
+    <t>guru melaksanakan magang di IDUKA</t>
+  </si>
+  <si>
+    <t>Etos/budaya kerja IDUKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etos/budaya kerja  IDUKA yang dimiliki guru </t>
+  </si>
+  <si>
+    <t>Kompetensi Kewirausahaan Kepala Sekolah</t>
+  </si>
+  <si>
+    <t>Kompetensi Kewirausahaan yang dimiliki kepala sekolah</t>
+  </si>
+  <si>
+    <t>Kompetensi supervisi Kepala Sekolah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pemahaman dan implementasi kompetensi supervisi oleh kepala sekolah </t>
+  </si>
+  <si>
+    <t>Kepala Laboratorium/bengkel bersertifikat teknis dan memiliki kualifikasi pendidikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurikulum </t>
+  </si>
+  <si>
+    <t>Sekolah memiliki kurikulum berstandar industri.</t>
+  </si>
+  <si>
+    <t>Kurikulum Skema KKNI/SKKNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarana Prasarana </t>
+  </si>
+  <si>
+    <t>Sekolah memiliki rasio alat praktik dan ruang praktik yang sesuai dengan ketentuan.</t>
+  </si>
+  <si>
+    <t>Sekolah memiliki spesifikasi alat dan ruang praktik berstandar industri yang sesuai.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finansial  </t>
+  </si>
+  <si>
+    <t>Dukungan finansial masyarakat/industri</t>
+  </si>
+  <si>
+    <t>Sekolah memiliki dukungan finansial dari masyarakat.</t>
+  </si>
+  <si>
+    <t>Dukungan finansial industri</t>
+  </si>
+  <si>
+    <t>dukungan finansial dari pemerintah (pusat/daerah)</t>
+  </si>
+  <si>
+    <t>Peran komite sekolah</t>
+  </si>
+  <si>
+    <t>Sekolah memiliki dukungan peran dari Komite Sekolah.</t>
+  </si>
+  <si>
+    <t>Sekolah memiliki dukungan dari Dinas Pendidikan Daerah.</t>
+  </si>
+  <si>
+    <t>Dukungan dinas terkait</t>
+  </si>
+  <si>
+    <t>Sekolah memiliki dukungan dari dinas terkait.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDUKA </t>
+  </si>
+  <si>
+    <t>Bentuk kerjasama dan dukungan IDUKA</t>
+  </si>
+  <si>
+    <t>Sekolah memiliki bentuk kerjasama dan dukungan IDUKA.</t>
+  </si>
+  <si>
+    <t>Penyesuaian KK/ Kurikulum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinkoronisasi dan validasi kurikulum dengan IDUKA </t>
+  </si>
+  <si>
+    <t>Sekolah mengembangkan, menyelaraskan, mengimplementasikan dan mengevaluasi pelaksanaan kurikulum secara sistematik, prosedural dan efektif</t>
+  </si>
+  <si>
+    <t>Melaksanakan pembelajaran sesuai dengan RPP dan melibatkan aktivitas siswa untuk mengembangkan kemampuan berpikir tingkat tinggi.</t>
+  </si>
+  <si>
+    <t>Melaksanakan penilaian proses dan hasil belajar serta menggunakan hasilnya sebagai dasar perbaikan program berikutnya.</t>
+  </si>
+  <si>
+    <t>Kualitas Kualitas Pembelajaran di luar kelas/IDUKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melaksanakan pembelajaran di luar kelas seperti kunjungan IDUKA </t>
+  </si>
+  <si>
+    <t>Penyelenggaraan  TEFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelaksanaan pembelajaran berbasis industri </t>
+  </si>
+  <si>
+    <t>Melaksanakan pembelajaran dengan mendasarkan pada pekerjaan nyata, autentik, dan penanaman budaya kerja melalui pembelajaran industri (teaching factory) untuk mendapatkan pembiasaan berpikir dan bekerja dengan kualitas seperti di tempat kerja/usaha</t>
+  </si>
+  <si>
+    <t>Penyelenggaraan UP</t>
+  </si>
+  <si>
+    <t>Pelaksanaan pembelajaran berbasis industri.</t>
+  </si>
+  <si>
+    <t>Menyelenggarakan Unit Produksi.</t>
+  </si>
+  <si>
+    <t>Penyelenggaraan kelas industri</t>
+  </si>
+  <si>
+    <t>Menyelenggarakan kelas khusus (kelas industri atau kelas wirausaha)</t>
+  </si>
+  <si>
+    <t>Penyelenggaraan  TEFA/UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekolah memiliki produk/jasa sebagai hasil dari pembelajaran teaching factory/unit produksi </t>
+  </si>
+  <si>
+    <t>Sekolah melaksanakan program peningkatan kompetensi profesional guru</t>
+  </si>
+  <si>
+    <t>Peningkatan kompetensi tenaga kependidikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praktik Kerja Industri Siswa </t>
+  </si>
+  <si>
+    <t>Melaksanakan praktik kerja industri.</t>
+  </si>
+  <si>
+    <t>Sekolah melaksanakan praktik kerja lapangan (PKL) dengan memenuhi 4 (empat) kriteria kualitas praktek kerja lapangan (PKL) yakni 1). Relevansi kompetensi keahlian siswa dengan jenis IDUKA lokasi praktek kerja lapangan (PKL) 2). Kesesuaian kompetensi keahlian siswa dengan deskripsi kerjanya (job description) selama praktek kerja lapangan (PKL) 3). Kecukupan waktu praktek kerja lapangan (PKL) dan 4). Laporan dan hasil evaluasi praktek kerja lapangan (PKL).</t>
+  </si>
+  <si>
+    <t>Praktik kerja lapangan (PKL) yang dilaksanakan oleh sekolah/program keahlian memenuhi 4 (empat) kriteria kualitas praktek kerja lapangan (PKL). Dilakukan evaluasi hasil praktek kerja lapangan (PKL) dan hasilnya digunakan untuk bahan pertimbangan pengembangan kurikulum dan perbaikan proses pembelajaran</t>
+  </si>
+  <si>
+    <t>Praktik kerja lapangan (PKL) yang dilaksanakan oleh sekolah/program keahlian memenuhi 4 (empat) kriteria kualitas praktek kerja lapangan (PKL).</t>
+  </si>
+  <si>
+    <t>Praktik kerja lapangan (PKL)yang dilaksanakan oleh sekolah/program keahlian memenuhi 3 (tiga) dari 4 (empat) kriteria kualitas praktek kerja lapangan (PKL) tanpa ada</t>
+  </si>
+  <si>
+    <t>Praktik kerja lapangan (PKL) yang dilaksanakan oleh sekolah/program keahlian, meliputi 2 dari 4 kriteria kualitas praktek kerja lapangan (PKL).</t>
+  </si>
+  <si>
+    <t>Sekolah tidak melaksanakan program Praktek kerja lapangan (PKL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definisi :
+1.	Praktik kerja industri (Praktek kerja lapangan (PKL)) adalah kegiatan pendidikan, pelatihan, dan pembelajaran di bidang usaha atau industri (IDUKA) yang relevan sesuai bidangnya. Dalam pelaksanaannya, praktek kerja lapangan (PKL) dilakukan dengan prosedur tertentu dan mematuhi ketentuan yang diterapkan oleh IDUKA. 
+2.	Kualitas Praktek kerja lapangan (PKL) yang dilaksanakan sekolah dinilai dari: 
+1) Relevansi kompetensi keahlian siswa dengan jenis DU/DI lokasi praktek kerja lapangan (PKL); 
+2) Kesesuaian kompetensi keahlian siswa dengan job description (pembagian kerja) selama praktek kerja lapangan (PKL); 
+3) Kecukupan waktu praktek kerja lapangan (PKL); dan 
+4) Laporan dan hasil evaluasi prakeri. 
+3.	Kecukupan waktu praktek kerja lapangan (PKL) siswa adalah selama 6 – 12 bulan di IDUKA.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait kualitas pembelajaran di luar kelas/IDUKA
+1.	Dokumen laporan praktek kerja lapangan (PKL) siswa 
+2.	Daftar perusahaan/IDUKA mitra praktek kerja lapangan (PKL) 
+3.	Dokumen MoU praktek kerja lapangan (PKL) antara Sekolah dan Perusahaan/IDUKA. 
+4.	Fotokopi sertifikat peserta praktek kerja lapangan (PKL) 
+5.	Dokumen evaluasi dan rekomendasi hasil praktek kerja lapangan (PKL)
+</t>
+  </si>
+  <si>
+    <t>Sekolah Menyusun program magang guru di IDUKA, melaksanakan program magang guru, melaporkan dan mengevaluasi kegiatan magang guru di IDUKA</t>
+  </si>
+  <si>
+    <t>Mentoring project berbasis order</t>
+  </si>
+  <si>
+    <t>Sekolah Menyusun jadwal IDUKA untuk memonitoring pelaksanaan pembuatan project berbasis order</t>
+  </si>
+  <si>
+    <t>Pelaksanaan budaya kerja</t>
+  </si>
+  <si>
+    <t>Sekolah melaksanakan uji kompetensi dengan IDUKA yang relevan atau dengan LSP P1</t>
+  </si>
+  <si>
+    <t>Mutu lulusan berstandar industri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outcome </t>
+  </si>
+  <si>
+    <t>Persentase lulusan dalam satu tahun yang melanjutkan pendidikan ke tingkat lanjut (diploma atau sarjana)</t>
+  </si>
+  <si>
+    <t>Pengembangan karir bekerja ke tingkat yang lebih tinggi</t>
+  </si>
+  <si>
+    <t>Persentase siswa/lulusan yang mendapatkan karir bekerja ke tingkat lebih tinggi</t>
+  </si>
+  <si>
+    <t>Berkembangnya kelembagaan SMK (TEFA/UP, SDM Sekolah, Perolehan  Dukungan)</t>
+  </si>
+  <si>
+    <t>Implementasi TeFa</t>
+  </si>
+  <si>
+    <t>Persentase KK yang menyelenggarakan TeFa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outcome  </t>
+  </si>
+  <si>
+    <t>Persentase SMK yang SDM nya dimanfaatkan oleh stakeholders dalam kontek kerja sama professional</t>
+  </si>
+  <si>
+    <t>Kemitraan sekolah dengan pihak eksternal diberbagai bidang</t>
+  </si>
+  <si>
+    <t>Jumlah pendaftar calon peserta didik baru</t>
+  </si>
+  <si>
+    <t>Jumlah partisipasi/dukungan terhadap program sekolah dari masyarakat</t>
+  </si>
+  <si>
+    <t>Pelaksanaan BLUD (Badan Layanan Umum Daerah) SMK</t>
+  </si>
+  <si>
+    <t>Organisasi pengelola</t>
   </si>
 </sst>
 </file>
@@ -2612,11 +2627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39974C29-4F78-416A-8A0F-B191B27EFFC3}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2632,7 +2647,7 @@
     <col min="11" max="16384" width="63.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2640,10 +2655,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2652,25 +2667,25 @@
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2681,16 +2696,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
@@ -2704,11 +2719,14 @@
       <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2719,34 +2737,37 @@
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="9">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -2757,34 +2778,37 @@
         <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2795,34 +2819,37 @@
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2833,10 +2860,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>14</v>
@@ -2851,16 +2878,19 @@
         <v>17</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="9">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2871,34 +2901,37 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="9">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -2909,13 +2942,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>161</v>
+        <v>469</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>21</v>
@@ -2932,11 +2965,14 @@
       <c r="K8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="9">
+        <v>7</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -2947,19 +2983,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>26</v>
+        <v>471</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>27</v>
@@ -2968,13 +3004,16 @@
         <v>28</v>
       </c>
       <c r="K9" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L9" s="9">
+        <v>8</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -2985,39 +3024,42 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="L10" s="9">
+        <v>9</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C11" s="7">
         <v>4</v>
@@ -3026,165 +3068,177 @@
         <v>30</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="9">
+        <v>10</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="9">
+        <v>11</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C13" s="11">
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="G13" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="L13" s="9">
+        <v>12</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C14" s="11">
         <v>4</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="L14" s="9">
+        <v>13</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C15" s="7">
         <v>3</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>32</v>
@@ -3198,110 +3252,119 @@
       <c r="K15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="9">
+        <v>14</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C16" s="7">
         <v>3</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>485</v>
+        <v>205</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="J16" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="K16" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="L16" s="9">
+        <v>15</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="I17" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="K17" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="L17" s="9">
+        <v>16</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F18" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>222</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>37</v>
@@ -3312,16 +3375,19 @@
       <c r="K18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="9">
+        <v>17</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
@@ -3330,86 +3396,92 @@
         <v>40</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H19" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="K19" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="L19" s="9">
+        <v>18</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F20" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="J20" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="K20" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="9">
+        <v>19</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C21" s="7">
         <v>2</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>42</v>
@@ -3426,49 +3498,55 @@
       <c r="K21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="9">
+        <v>20</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>49</v>
+        <v>492</v>
       </c>
       <c r="C22" s="7">
         <v>8</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>50</v>
+        <v>493</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F22" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="J22" s="9" t="s">
         <v>242</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>243</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="9">
+        <v>21</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -3482,7 +3560,7 @@
         <v>50</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>70</v>
+        <v>495</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>48</v>
@@ -3502,11 +3580,14 @@
       <c r="K23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="9">
+        <v>22</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -3520,7 +3601,7 @@
         <v>50</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>497</v>
+        <v>70</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>69</v>
@@ -3540,11 +3621,14 @@
       <c r="K24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="9">
+        <v>23</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -3555,10 +3639,10 @@
         <v>8</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>56</v>
@@ -3578,63 +3662,69 @@
       <c r="K25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="9">
+        <v>24</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>499</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F26" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="I26" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="J26" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="K26" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="L26" s="9">
+        <v>25</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L26" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C27" s="7">
         <v>4</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>76</v>
@@ -3654,11 +3744,14 @@
       <c r="K27" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="L27" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="9">
+        <v>26</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
@@ -3672,7 +3765,7 @@
         <v>503</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>82</v>
@@ -3692,16 +3785,19 @@
       <c r="K28" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="L28" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="9">
+        <v>27</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C29" s="7">
         <v>4</v>
@@ -3713,33 +3809,36 @@
         <v>506</v>
       </c>
       <c r="F29" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>257</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>258</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I29" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="K29" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="L29" s="9">
+        <v>28</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="L29" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C30" s="7">
         <v>4</v>
@@ -3748,31 +3847,34 @@
         <v>89</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F30" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="I30" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="J30" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="K30" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="L30" s="9">
+        <v>29</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>47</v>
       </c>
@@ -3786,31 +3888,34 @@
         <v>91</v>
       </c>
       <c r="E31" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="G31" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="H31" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="I31" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="J31" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="K31" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="L31" s="9">
+        <v>30</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L31" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>47</v>
       </c>
@@ -3821,34 +3926,37 @@
         <v>4</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="G32" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="H32" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="I32" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="J32" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="K32" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="L32" s="9">
+        <v>31</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="L32" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>47</v>
       </c>
@@ -3859,51 +3967,54 @@
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="J33" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="K33" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="L33" s="9">
+        <v>32</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="L33" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C34" s="7">
         <v>4</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E34" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>294</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>295</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>62</v>
@@ -3920,505 +4031,547 @@
       <c r="K34" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L34" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="9">
+        <v>33</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>297</v>
+        <v>49</v>
       </c>
       <c r="C35" s="7">
         <v>4</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>298</v>
+        <v>67</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>299</v>
+        <v>513</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>300</v>
+        <v>514</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>301</v>
+        <v>515</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>302</v>
+        <v>516</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>303</v>
+        <v>517</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+      <c r="L35" s="9">
+        <v>34</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C36" s="7">
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>94</v>
+        <v>520</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>92</v>
+        <v>298</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>95</v>
+        <v>299</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>97</v>
+        <v>301</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>98</v>
+        <v>302</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="L36" s="9">
+        <v>35</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C37" s="7">
         <v>4</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>512</v>
+        <v>94</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="L37" s="9">
+        <v>36</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C38" s="7">
         <v>4</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>308</v>
+        <v>100</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>309</v>
+        <v>102</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>310</v>
+        <v>103</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>311</v>
+        <v>104</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>312</v>
+        <v>105</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="L38" s="9">
+        <v>37</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C39" s="7">
         <v>4</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>513</v>
+        <v>108</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>514</v>
+        <v>107</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="L39" s="9">
+        <v>38</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="C40" s="7">
         <v>4</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>323</v>
+        <v>522</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="L40" s="9">
+        <v>39</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C41" s="7">
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>332</v>
+        <v>523</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>516</v>
+        <v>322</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="L41" s="9">
+        <v>40</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C42" s="7">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="L42" s="9">
+        <v>41</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C43" s="7">
+        <v>4</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C42" s="7">
-        <v>3</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="E43" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="F43" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="G43" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="H43" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="I43" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="J43" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="K43" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="L43" s="9">
+        <v>42</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="L42" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="7">
-        <v>15</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="7">
+        <v>10</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="L44" s="9">
+        <v>43</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="7">
-        <v>15</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="C45" s="11">
+        <v>10</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E45" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F45" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G45" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="H45" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="I45" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="J45" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="K45" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L45" s="9">
+        <v>44</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="K44" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="11">
-        <v>2</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>117</v>
+        <v>526</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C46" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E46" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="L46" s="9">
+        <v>45</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="11">
+        <v>5</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G46" s="9" t="s">
+      <c r="H47" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="I47" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="J47" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="K47" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="K46" s="9" t="s">
+      <c r="L47" s="9">
+        <v>46</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="L46" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="11">
-        <v>2</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>117</v>
       </c>
@@ -4426,37 +4579,40 @@
         <v>121</v>
       </c>
       <c r="C48" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>122</v>
+        <v>376</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="L48" s="9">
+        <v>47</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>117</v>
       </c>
@@ -4464,376 +4620,406 @@
         <v>121</v>
       </c>
       <c r="C49" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="L49" s="9">
+        <v>48</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="C50" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="L50" s="9">
+        <v>50</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="C51" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="L51" s="9">
+        <v>51</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="C52" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>525</v>
+        <v>122</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="L52" s="9">
+        <v>52</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="C53" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>526</v>
+        <v>122</v>
       </c>
       <c r="F53" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="L53" s="9">
+        <v>53</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="11">
+        <v>3</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="H54" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="I54" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="J54" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="K54" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="J53" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="K53" s="9" t="s">
+      <c r="L54" s="9">
+        <v>54</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="L53" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="C54" s="11">
-        <v>1</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="C55" s="11">
+        <v>3</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="L55" s="9">
+        <v>55</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="7">
+        <v>2</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="L56" s="9">
+        <v>56</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="7">
+        <v>2</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="L57" s="9">
+        <v>57</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C58" s="7">
         <v>1</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="7">
-        <v>3</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="7">
-        <v>3</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="F57" s="9" t="s">
+      <c r="D58" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="F58" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="G58" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="H58" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="J57" s="9" t="s">
+      <c r="I58" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="K58" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="K57" s="9" t="s">
+      <c r="L58" s="9">
+        <v>58</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="C58" s="7">
-        <v>2</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/public/template_instrumen.xlsx
+++ b/public/template_instrumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4782CE9E-7C4A-41D3-BC92-5D810FC5D820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C4DBF6-CB98-4353-83E9-7D9C5AE84DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{F29D22C7-93BF-4282-9F88-0AB83B9FEE47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="539">
   <si>
     <t>Komponen</t>
   </si>
@@ -2159,9 +2159,6 @@
     <t>Persentase KK yang menyelenggarakan TeFa</t>
   </si>
   <si>
-    <t xml:space="preserve">Outcome  </t>
-  </si>
-  <si>
     <t>Persentase SMK yang SDM nya dimanfaatkan oleh stakeholders dalam kontek kerja sama professional</t>
   </si>
   <si>
@@ -2177,7 +2174,7 @@
     <t>Pelaksanaan BLUD (Badan Layanan Umum Daerah) SMK</t>
   </si>
   <si>
-    <t>Organisasi pengelola</t>
+    <t xml:space="preserve">Organisasi pengelola </t>
   </si>
 </sst>
 </file>
@@ -2306,7 +2303,197 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2630,14 +2817,14 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="83.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -2719,8 +2906,8 @@
       <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9">
-        <v>1</v>
+      <c r="L2" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>133</v>
@@ -2760,8 +2947,8 @@
       <c r="K3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9">
-        <v>2</v>
+      <c r="L3" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>139</v>
@@ -2801,8 +2988,8 @@
       <c r="K4" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="L4" s="9">
-        <v>3</v>
+      <c r="L4" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>146</v>
@@ -2842,8 +3029,8 @@
       <c r="K5" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="L5" s="9">
-        <v>4</v>
+      <c r="L5" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>152</v>
@@ -2883,8 +3070,8 @@
       <c r="K6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="9">
-        <v>5</v>
+      <c r="L6" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>154</v>
@@ -2924,8 +3111,8 @@
       <c r="K7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="9">
-        <v>6</v>
+      <c r="L7" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>159</v>
@@ -2965,8 +3152,8 @@
       <c r="K8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="9">
-        <v>7</v>
+      <c r="L8" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>161</v>
@@ -3006,8 +3193,8 @@
       <c r="K9" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="L9" s="9">
-        <v>8</v>
+      <c r="L9" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>165</v>
@@ -3047,8 +3234,8 @@
       <c r="K10" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="L10" s="9">
-        <v>9</v>
+      <c r="L10" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>173</v>
@@ -3088,8 +3275,8 @@
       <c r="K11" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="L11" s="9">
-        <v>10</v>
+      <c r="L11" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>179</v>
@@ -3129,8 +3316,8 @@
       <c r="K12" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="L12" s="9">
-        <v>11</v>
+      <c r="L12" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>186</v>
@@ -3170,8 +3357,8 @@
       <c r="K13" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="L13" s="9">
-        <v>12</v>
+      <c r="L13" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>194</v>
@@ -3211,8 +3398,8 @@
       <c r="K14" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="L14" s="9">
-        <v>13</v>
+      <c r="L14" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>202</v>
@@ -3252,8 +3439,8 @@
       <c r="K15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="9">
-        <v>14</v>
+      <c r="L15" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>204</v>
@@ -3293,8 +3480,8 @@
       <c r="K16" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="L16" s="9">
-        <v>15</v>
+      <c r="L16" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>211</v>
@@ -3334,8 +3521,8 @@
       <c r="K17" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="L17" s="9">
-        <v>16</v>
+      <c r="L17" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>218</v>
@@ -3346,7 +3533,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
@@ -3375,8 +3562,8 @@
       <c r="K18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="9">
-        <v>17</v>
+      <c r="L18" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>222</v>
@@ -3387,7 +3574,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
@@ -3416,8 +3603,8 @@
       <c r="K19" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="L19" s="9">
-        <v>18</v>
+      <c r="L19" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>228</v>
@@ -3428,7 +3615,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -3457,8 +3644,8 @@
       <c r="K20" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="L20" s="9">
-        <v>19</v>
+      <c r="L20" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>235</v>
@@ -3498,8 +3685,8 @@
       <c r="K21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L21" s="9">
-        <v>20</v>
+      <c r="L21" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>237</v>
@@ -3539,8 +3726,8 @@
       <c r="K22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L22" s="9">
-        <v>21</v>
+      <c r="L22" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>243</v>
@@ -3580,8 +3767,8 @@
       <c r="K23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="9">
-        <v>22</v>
+      <c r="L23" s="9" t="s">
+        <v>244</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>244</v>
@@ -3621,8 +3808,8 @@
       <c r="K24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="L24" s="9">
-        <v>23</v>
+      <c r="L24" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>245</v>
@@ -3662,8 +3849,8 @@
       <c r="K25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="9">
-        <v>24</v>
+      <c r="L25" s="9" t="s">
+        <v>246</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>246</v>
@@ -3703,8 +3890,8 @@
       <c r="K26" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="L26" s="9">
-        <v>25</v>
+      <c r="L26" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>253</v>
@@ -3715,40 +3902,40 @@
         <v>47</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>499</v>
+        <v>49</v>
       </c>
       <c r="C27" s="7">
         <v>4</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>500</v>
+      <c r="D27" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>76</v>
+        <v>513</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>77</v>
+        <v>514</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>79</v>
+        <v>516</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>80</v>
+        <v>517</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="9">
-        <v>26</v>
+        <v>518</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>519</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>254</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3756,40 +3943,40 @@
         <v>47</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C28" s="7">
         <v>4</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L28" s="9">
-        <v>27</v>
+        <v>81</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3797,7 +3984,7 @@
         <v>47</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C29" s="7">
         <v>4</v>
@@ -3806,31 +3993,31 @@
         <v>503</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>258</v>
+        <v>85</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>259</v>
+        <v>86</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="L29" s="9">
-        <v>28</v>
+        <v>87</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3838,40 +4025,40 @@
         <v>47</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C30" s="7">
         <v>4</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>89</v>
+      <c r="D30" s="10" t="s">
+        <v>503</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="L30" s="9">
-        <v>29</v>
+        <v>260</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3879,40 +4066,40 @@
         <v>47</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>90</v>
+        <v>507</v>
       </c>
       <c r="C31" s="7">
         <v>4</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>269</v>
+        <v>508</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="L31" s="9">
-        <v>30</v>
+        <v>267</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>268</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3926,34 +4113,34 @@
         <v>4</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>277</v>
+        <v>91</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>509</v>
+        <v>269</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="L32" s="9">
-        <v>31</v>
+        <v>275</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3967,34 +4154,34 @@
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>510</v>
+        <v>277</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>285</v>
+        <v>509</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="L33" s="9">
-        <v>32</v>
+        <v>283</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>284</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4002,40 +4189,40 @@
         <v>47</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>296</v>
+        <v>90</v>
       </c>
       <c r="C34" s="7">
         <v>4</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>63</v>
+        <v>288</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L34" s="9">
-        <v>33</v>
+        <v>291</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>292</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4043,40 +4230,40 @@
         <v>47</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>49</v>
+        <v>296</v>
       </c>
       <c r="C35" s="7">
         <v>4</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>67</v>
+        <v>511</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>512</v>
+        <v>293</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>513</v>
+        <v>294</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>514</v>
+        <v>62</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>515</v>
+        <v>63</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>516</v>
+        <v>64</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>517</v>
+        <v>65</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="L35" s="9">
-        <v>34</v>
+        <v>66</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>295</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>519</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4113,8 +4300,8 @@
       <c r="K36" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="L36" s="9">
-        <v>35</v>
+      <c r="L36" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>304</v>
@@ -4154,8 +4341,8 @@
       <c r="K37" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="L37" s="9">
-        <v>36</v>
+      <c r="L37" s="9" t="s">
+        <v>305</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>305</v>
@@ -4195,8 +4382,8 @@
       <c r="K38" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="L38" s="9">
-        <v>37</v>
+      <c r="L38" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>306</v>
@@ -4236,8 +4423,8 @@
       <c r="K39" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="L39" s="9">
-        <v>38</v>
+      <c r="L39" s="9" t="s">
+        <v>313</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>313</v>
@@ -4277,8 +4464,8 @@
       <c r="K40" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="L40" s="9">
-        <v>39</v>
+      <c r="L40" s="9" t="s">
+        <v>320</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>320</v>
@@ -4318,8 +4505,8 @@
       <c r="K41" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="L41" s="9">
-        <v>40</v>
+      <c r="L41" s="9" t="s">
+        <v>329</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>329</v>
@@ -4359,8 +4546,8 @@
       <c r="K42" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="L42" s="9">
-        <v>41</v>
+      <c r="L42" s="9" t="s">
+        <v>338</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>338</v>
@@ -4400,8 +4587,8 @@
       <c r="K43" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="L43" s="9">
-        <v>42</v>
+      <c r="L43" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>348</v>
@@ -4441,8 +4628,8 @@
       <c r="K44" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="L44" s="9">
-        <v>43</v>
+      <c r="L44" s="9" t="s">
+        <v>355</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>355</v>
@@ -4482,8 +4669,8 @@
       <c r="K45" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L45" s="9">
-        <v>44</v>
+      <c r="L45" s="9" t="s">
+        <v>360</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>360</v>
@@ -4523,8 +4710,8 @@
       <c r="K46" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="L46" s="9">
-        <v>45</v>
+      <c r="L46" s="9" t="s">
+        <v>368</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>368</v>
@@ -4564,8 +4751,8 @@
       <c r="K47" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="L47" s="9">
-        <v>46</v>
+      <c r="L47" s="9" t="s">
+        <v>375</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>375</v>
@@ -4605,8 +4792,8 @@
       <c r="K48" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="L48" s="9">
-        <v>47</v>
+      <c r="L48" s="9" t="s">
+        <v>383</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>383</v>
@@ -4646,8 +4833,8 @@
       <c r="K49" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="L49" s="9">
-        <v>48</v>
+      <c r="L49" s="9" t="s">
+        <v>390</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>390</v>
@@ -4687,8 +4874,8 @@
       <c r="K50" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="L50" s="9">
-        <v>50</v>
+      <c r="L50" s="9" t="s">
+        <v>397</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>397</v>
@@ -4728,8 +4915,8 @@
       <c r="K51" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="L51" s="9">
-        <v>51</v>
+      <c r="L51" s="9" t="s">
+        <v>404</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>404</v>
@@ -4769,8 +4956,8 @@
       <c r="K52" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="L52" s="9">
-        <v>52</v>
+      <c r="L52" s="9" t="s">
+        <v>411</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>411</v>
@@ -4810,8 +4997,8 @@
       <c r="K53" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="L53" s="9">
-        <v>53</v>
+      <c r="L53" s="9" t="s">
+        <v>417</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>417</v>
@@ -4819,40 +5006,40 @@
     </row>
     <row r="54" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>533</v>
+        <v>117</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>121</v>
+        <v>530</v>
       </c>
       <c r="C54" s="11">
         <v>3</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>530</v>
+        <v>123</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>534</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="L54" s="9">
-        <v>54</v>
+        <v>430</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>431</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>424</v>
@@ -4863,37 +5050,37 @@
         <v>117</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>530</v>
+        <v>121</v>
       </c>
       <c r="C55" s="11">
         <v>3</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>123</v>
+        <v>530</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="L55" s="9">
-        <v>55</v>
+        <v>423</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>424</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>431</v>
@@ -4913,7 +5100,7 @@
         <v>126</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>432</v>
@@ -4933,8 +5120,8 @@
       <c r="K56" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="L56" s="9">
-        <v>56</v>
+      <c r="L56" s="9" t="s">
+        <v>438</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>438</v>
@@ -4954,7 +5141,7 @@
         <v>439</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>440</v>
@@ -4974,8 +5161,8 @@
       <c r="K57" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="L57" s="9">
-        <v>57</v>
+      <c r="L57" s="9" t="s">
+        <v>446</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>446</v>
@@ -4992,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>448</v>
@@ -5015,8 +5202,8 @@
       <c r="K58" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="L58" s="9">
-        <v>58</v>
+      <c r="L58" s="9" t="s">
+        <v>453</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>453</v>
@@ -5024,7 +5211,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A58">
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/public/template_instrumen.xlsx
+++ b/public/template_instrumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C4DBF6-CB98-4353-83E9-7D9C5AE84DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F0B19C-95B5-4ED0-A5B4-45EC0D67DB3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{F29D22C7-93BF-4282-9F88-0AB83B9FEE47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="538">
   <si>
     <t>Komponen</t>
   </si>
@@ -2136,9 +2136,6 @@
   </si>
   <si>
     <t>Mutu lulusan berstandar industri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outcome </t>
   </si>
   <si>
     <t>Persentase lulusan dalam satu tahun yang melanjutkan pendidikan ke tingkat lanjut (diploma atau sarjana)</t>
@@ -2303,187 +2300,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2817,8 +2634,8 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3533,7 +3350,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
@@ -3574,7 +3391,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
@@ -3615,7 +3432,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -4678,7 +4495,7 @@
     </row>
     <row r="46" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>526</v>
+        <v>117</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>118</v>
@@ -4719,7 +4536,7 @@
     </row>
     <row r="47" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>526</v>
+        <v>117</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>118</v>
@@ -4772,7 +4589,7 @@
         <v>376</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>377</v>
@@ -4810,10 +4627,10 @@
         <v>5</v>
       </c>
       <c r="D49" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>528</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>529</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>384</v>
@@ -4845,16 +4662,16 @@
         <v>117</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C50" s="11">
         <v>5</v>
       </c>
       <c r="D50" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>531</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>532</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>391</v>
@@ -4886,13 +4703,13 @@
         <v>117</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C51" s="11">
         <v>5</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>398</v>
@@ -4927,7 +4744,7 @@
         <v>117</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C52" s="11">
         <v>5</v>
@@ -4968,7 +4785,7 @@
         <v>117</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C53" s="11">
         <v>3</v>
@@ -5009,7 +4826,7 @@
         <v>117</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C54" s="11">
         <v>3</v>
@@ -5018,7 +4835,7 @@
         <v>123</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>425</v>
@@ -5056,10 +4873,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>418</v>
@@ -5100,7 +4917,7 @@
         <v>126</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>432</v>
@@ -5141,7 +4958,7 @@
         <v>439</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>440</v>
@@ -5179,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>448</v>
@@ -5211,10 +5028,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A58">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/public/template_instrumen.xlsx
+++ b/public/template_instrumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F0B19C-95B5-4ED0-A5B4-45EC0D67DB3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB566470-0D45-4821-87EC-4AF3E4BB7C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{F29D22C7-93BF-4282-9F88-0AB83B9FEE47}"/>
   </bookViews>
@@ -2303,21 +2303,21 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2634,8 +2634,8 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3722,7 +3722,7 @@
         <v>49</v>
       </c>
       <c r="C27" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>67</v>
@@ -5028,10 +5028,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A58">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/public/template_instrumen.xlsx
+++ b/public/template_instrumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB566470-0D45-4821-87EC-4AF3E4BB7C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106A317E-FC12-4869-A2C3-F90C3E7E210E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{F29D22C7-93BF-4282-9F88-0AB83B9FEE47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="535">
   <si>
     <t>Komponen</t>
   </si>
@@ -2042,25 +2042,16 @@
     <t xml:space="preserve">Melaksanakan pembelajaran di luar kelas seperti kunjungan IDUKA </t>
   </si>
   <si>
-    <t>Penyelenggaraan  TEFA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pelaksanaan pembelajaran berbasis industri </t>
   </si>
   <si>
     <t>Melaksanakan pembelajaran dengan mendasarkan pada pekerjaan nyata, autentik, dan penanaman budaya kerja melalui pembelajaran industri (teaching factory) untuk mendapatkan pembiasaan berpikir dan bekerja dengan kualitas seperti di tempat kerja/usaha</t>
   </si>
   <si>
-    <t>Penyelenggaraan UP</t>
-  </si>
-  <si>
     <t>Pelaksanaan pembelajaran berbasis industri.</t>
   </si>
   <si>
     <t>Menyelenggarakan Unit Produksi.</t>
-  </si>
-  <si>
-    <t>Penyelenggaraan kelas industri</t>
   </si>
   <si>
     <t>Menyelenggarakan kelas khusus (kelas industri atau kelas wirausaha)</t>
@@ -2303,21 +2294,21 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2634,8 +2625,8 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26:C27"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3350,7 +3341,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
@@ -3391,7 +3382,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
@@ -3432,7 +3423,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -3517,7 +3508,7 @@
         <v>492</v>
       </c>
       <c r="C22" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>493</v>
@@ -3728,31 +3719,31 @@
         <v>67</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="I27" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="K27" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="L27" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>519</v>
-      </c>
       <c r="M27" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3760,16 +3751,16 @@
         <v>47</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C28" s="7">
         <v>4</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>500</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>501</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>76</v>
@@ -3801,16 +3792,16 @@
         <v>47</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C29" s="7">
         <v>4</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>82</v>
@@ -3842,16 +3833,16 @@
         <v>47</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C30" s="7">
         <v>4</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>506</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>256</v>
@@ -3883,7 +3874,7 @@
         <v>47</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C31" s="7">
         <v>4</v>
@@ -3892,7 +3883,7 @@
         <v>89</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>262</v>
@@ -3974,7 +3965,7 @@
         <v>277</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>278</v>
@@ -4012,7 +4003,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>285</v>
@@ -4053,7 +4044,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>293</v>
@@ -4097,7 +4088,7 @@
         <v>297</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>298</v>
@@ -4258,10 +4249,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>314</v>
@@ -4299,7 +4290,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>322</v>
@@ -4343,7 +4334,7 @@
         <v>331</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>332</v>
@@ -4378,7 +4369,7 @@
         <v>339</v>
       </c>
       <c r="C43" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>340</v>
@@ -4419,10 +4410,10 @@
         <v>110</v>
       </c>
       <c r="C44" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>111</v>
@@ -4460,7 +4451,7 @@
         <v>113</v>
       </c>
       <c r="C45" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>114</v>
@@ -4501,7 +4492,7 @@
         <v>118</v>
       </c>
       <c r="C46" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>119</v>
@@ -4542,7 +4533,7 @@
         <v>118</v>
       </c>
       <c r="C47" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>119</v>
@@ -4583,13 +4574,13 @@
         <v>121</v>
       </c>
       <c r="C48" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>376</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>377</v>
@@ -4624,13 +4615,13 @@
         <v>121</v>
       </c>
       <c r="C49" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>384</v>
@@ -4662,40 +4653,40 @@
         <v>117</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="11">
+        <v>2</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="C50" s="11">
-        <v>5</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>531</v>
-      </c>
       <c r="F50" s="9" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4703,40 +4694,40 @@
         <v>117</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C51" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>398</v>
+        <v>528</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4744,40 +4735,40 @@
         <v>117</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C52" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>122</v>
+        <v>527</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>122</v>
+        <v>398</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4785,10 +4776,10 @@
         <v>117</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C53" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>122</v>
@@ -4797,28 +4788,28 @@
         <v>122</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4826,40 +4817,40 @@
         <v>117</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C54" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>533</v>
+        <v>122</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4867,40 +4858,40 @@
         <v>117</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>121</v>
+        <v>526</v>
       </c>
       <c r="C55" s="11">
-        <v>3</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>529</v>
+        <v>1</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="L55" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="M55" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4917,7 +4908,7 @@
         <v>126</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>432</v>
@@ -4958,7 +4949,7 @@
         <v>439</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>440</v>
@@ -4996,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>448</v>
@@ -5028,10 +5019,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A58">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/public/template_instrumen.xlsx
+++ b/public/template_instrumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106A317E-FC12-4869-A2C3-F90C3E7E210E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53BF48C-ED6C-49FD-AA43-7126F4099930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{F29D22C7-93BF-4282-9F88-0AB83B9FEE47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="592">
   <si>
     <t>Komponen</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Sekolah melaksanakan penjurusan siswa berdasarkan minat dan bakat.</t>
   </si>
   <si>
-    <t>Sekolah melaksanakan penjurusan berdasarkan minat dan bakat siswa .</t>
-  </si>
-  <si>
     <t>Sekolah melaksanakan penjurusan berdasarkan bakat siswa.</t>
   </si>
   <si>
@@ -376,9 +373,6 @@
   </si>
   <si>
     <t>Siswa/lulusan belum memiliki sertifikat kompetensi jenjang KKNI (level II/III) berbasis LSP/BNSP</t>
-  </si>
-  <si>
-    <t>Outcome</t>
   </si>
   <si>
     <t>Keterserapan dan Kemandirian Lulusan (BMW)</t>
@@ -1255,9 +1249,6 @@
 </t>
   </si>
   <si>
-    <t>Pemberdayaan kemitraan IDUKA</t>
-  </si>
-  <si>
     <t>Praktik Kerja Magang Guru</t>
   </si>
   <si>
@@ -2036,9 +2027,6 @@
     <t>Melaksanakan penilaian proses dan hasil belajar serta menggunakan hasilnya sebagai dasar perbaikan program berikutnya.</t>
   </si>
   <si>
-    <t>Kualitas Kualitas Pembelajaran di luar kelas/IDUKA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Melaksanakan pembelajaran di luar kelas seperti kunjungan IDUKA </t>
   </si>
   <si>
@@ -2070,27 +2058,6 @@
   </si>
   <si>
     <t xml:space="preserve">Praktik Kerja Industri Siswa </t>
-  </si>
-  <si>
-    <t>Melaksanakan praktik kerja industri.</t>
-  </si>
-  <si>
-    <t>Sekolah melaksanakan praktik kerja lapangan (PKL) dengan memenuhi 4 (empat) kriteria kualitas praktek kerja lapangan (PKL) yakni 1). Relevansi kompetensi keahlian siswa dengan jenis IDUKA lokasi praktek kerja lapangan (PKL) 2). Kesesuaian kompetensi keahlian siswa dengan deskripsi kerjanya (job description) selama praktek kerja lapangan (PKL) 3). Kecukupan waktu praktek kerja lapangan (PKL) dan 4). Laporan dan hasil evaluasi praktek kerja lapangan (PKL).</t>
-  </si>
-  <si>
-    <t>Praktik kerja lapangan (PKL) yang dilaksanakan oleh sekolah/program keahlian memenuhi 4 (empat) kriteria kualitas praktek kerja lapangan (PKL). Dilakukan evaluasi hasil praktek kerja lapangan (PKL) dan hasilnya digunakan untuk bahan pertimbangan pengembangan kurikulum dan perbaikan proses pembelajaran</t>
-  </si>
-  <si>
-    <t>Praktik kerja lapangan (PKL) yang dilaksanakan oleh sekolah/program keahlian memenuhi 4 (empat) kriteria kualitas praktek kerja lapangan (PKL).</t>
-  </si>
-  <si>
-    <t>Praktik kerja lapangan (PKL)yang dilaksanakan oleh sekolah/program keahlian memenuhi 3 (tiga) dari 4 (empat) kriteria kualitas praktek kerja lapangan (PKL) tanpa ada</t>
-  </si>
-  <si>
-    <t>Praktik kerja lapangan (PKL) yang dilaksanakan oleh sekolah/program keahlian, meliputi 2 dari 4 kriteria kualitas praktek kerja lapangan (PKL).</t>
-  </si>
-  <si>
-    <t>Sekolah tidak melaksanakan program Praktek kerja lapangan (PKL)</t>
   </si>
   <si>
     <t xml:space="preserve">Definisi :
@@ -2162,7 +2129,755 @@
     <t>Pelaksanaan BLUD (Badan Layanan Umum Daerah) SMK</t>
   </si>
   <si>
-    <t xml:space="preserve">Organisasi pengelola </t>
+    <t>Sekolah melaksanakan penjurusan berdasarkan minat dan bakat siswa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Minat adalah dorongan atau keinginan dalam diri seseorang pada objek tertentu.
+2.	Bakat adalah potensi yang dimiliki oleh seseorang sebagai bawaan sejak lahir. 
+3.	Tes minat dan bakat penting dilakukan dalam penjurusan karena dorongan atau potensi siswa sangat berpengaruh pada ketahanan, kesabaran, keuletan, dan kualitas belajar yang akan dijalani mereka.
+4.	Psikotes adalah tes untuk mengukur aspek-aspek individu secara psikis melalui kecenderungan perilaku.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait penjurusan siswa berdasarkan minat dan bakat.
+1.	Prosedur mutu (POS) PPDB
+2.	Data hasil psikotes minat dan bakat
+3.	Data hasil penjurusan
+4.	Hasil analisis data penjurusan
+</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Prestasi akademis adalah pengetahuan yang dicapai atau keterampilan yang dikembangkan dalam mata pelajaran tertentu di sekolah.
+2.	Prestasi akademis dijadikan dasar penjurusan karena pengetahuan/ketrampilan yang dimiliki siswa adalah salah satu modal performa kualitas siswa. 
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait penjurusan siswa berdasarkan prestasi akademis.
+1.	Prosedur mutu (POS) PPDB
+2.	Data penjurusan berdasarkan prestasi akademis
+3.	Hasil seleksi penjurusan berdasarkan prestasi akademis
+4.	Analisis data penjurusan berdasarkan prestasi akademis</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Peta kompetensi adalah data akurat mengenai kemampuan dan potensi kualitatif yang ada pada setiap SDM.
+2.	SDM adalah individu produktif yang bekerja sebagai penggerak suatu organisasi, baik itu di dalam institusi maupun perusahaan yang memiliki fungsi sebagai aset sehingga harus dilatih dan dikembangkan kemampuannya.
+3.	Pengembangan SDM adalah upaya berkesinambungan meningkatkan mutu sumber daya manusia dalam arti yang seluas-luasnya, melalui pendidikan, latihan, dan pembinaan. (Silalahi:2000)
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait Peta kompetensi SDM dan program pengembangannya.
+4.	Program pengembangan SDM
+5.	SOP peta kompetensi dan pengembangan SDM
+6.	Laporan pelaksanaan program pengembangan SDM 
+7.	Hasil evaluasi program pengembangan SDM
+8.	Tindak lanjut hasil evaluasi program pengembangan SDM</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Kompetensi kejuruan adalah kemampuan menguasai mata pelajaran kejuruan.
+2.	Sertifikasi teknis adalah penetapan yang diberikan oleh suatu organisasi profesional terhadap seseorang untuk menunjukkan bahwa orang tersebut mampu untuk melakukan suatu pekerjaan atau tugas spesifik/teknis.  
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait guru memiliki kompetensi kejuruan berstandar industri/sertifikasi teknis.
+1.	Program pengembangan SDM
+2.	Data guru yang memiliki kompetensi kejuruan berstandar industri/sertifikasi teknis
+3.	Analisis data guru dan sertifikasi guru kejuruan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Magang adalah kegiatan untuk melatih, mempraktikkan ilmu teknis yang di miliki seseorang pada tempat yang sesuai dan ditentukan.
+2.	IDUKA adalah singkatan dari industri, dunia usaha dan dunia kerja.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait pelaksanaan guru magang di IDUKA.
+1.	Program sekolah terkait guru magang
+2.	Data guru magang di IDUKA
+3.	Jadwal guru magang
+4.	Profil IDUKA sebagai lokasi guru magang 
+</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Etos kerja adalah sikap yang muncul atas kehendak dan kesadaran sendiri yang didasari oleh sistem orientasi nilai budaya terhadap kerja.
+2.	Guru kejuruan diharapkan memiliki etos budaya kerja IDUKA yang bisa terlihat dari tampilan fisik dan sikap agar bisa menjadi contoh nyata bagi siswa.
+3.	Budaya kerja IDUKA harus dimasukkan dalam Instrumen supervisi pembelajaran guru kejuruan. 
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait budaya kerja IDUKA yang dilmiliki guru.
+1.	POS supervisi pembelajaran 
+2.	Instrumen supervisi pembelajaran
+3.	Hasil supervisi pembelajaran guru kejuruan</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Variabel kompetensi kewirausahaan:
+1.	Tindakan inovatif
+2.	Bekerja keras
+3.	Motivasi yang kuat
+4.	Pantang menyerah dan selalu mencari solusi terbaik
+5.	Memiliki naluri kewirausahaan
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait Kompetensi Kewirausahaan yang dimiliki kepala sekolah.
+1.	Program Kerja Kepala Sekolah
+2.	POS PPKKS (Penilaian Prestasi Kinerja Kepala Sekolah)
+3.	Hasil PPKKS</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Kompetensi supervisi adalah kemampuan kepala sekolah dalam merencanakan, melaksanakan, dan menindaklanjuti hasil supervisi dalam upaya meningkatkan kualitas sekolah.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait kompetensi supervisi yang dimiliki kepala sekolah.
+1.	Program supervisi pembelajaran
+2.	Hasil supervisi pembelajaran
+3.	Evaluasi supervisi pembelajaran
+4.	Laporan tindak lanjut hasil supervisi pembelajaran</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Kepala laboratorium/bengkel adalah orang yang ditugaskan untuk mengelola laboratorium/bengkel.
+2.	Kualifikasi kepala laboratorium/bengkel adalah standar pendidikan minimal yang harus dimiliki kepala laboratorium/bengkel.
+3.	Sertifikasi teknis adalah standar kompetensi yang harus dimiliki kepala laboratorium/bengkel. 
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait kualifikasi pendidikan/sertifikat teknis yang dimiliki Kepala laboratorium/bengkel.
+1.	Data kualifikasi pendidikan/sertifikat teknis yang dimiliki Kepala laboratorium/bengkel
+2.	Analisis data Kepala laboratorium/bengkel dengan kualifikasi pendidikan/sertifikat teknis</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Kurikulum industri adalah kurikulum yang terintegrasi dan disusun bersama dengan IDUKA. 
+2.	Penyusunan kurikulum berstandar industri harus menghadirkan IDUKA agar mutu kompetensi kejuruan yang diharapkan oleh IDUKA sebagai pengguna (user) betul-betul bisa diimplementasikan secara optimal.
+Petunjuk Telaah Dokumen:
+Lakukan telaah dokumen terkait kurikulum berstandar industri sekolah.
+1.	POS penyusunan kurikulum
+2.	Bukti penyusunan kurikulum (berita acara, daftar hadir, foto kegiatan)
+3.	Dokumen kurikulum berstandar industri yang ditandatangani oleh IDUKA dan sekolah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	KKNI (Kerangka Kualifikasi Nasional Indonesia) adalah kerangka penjenjangan kualifikasi SDM yang menyandingkan, menyetarakan, dan mengintegrasikan sektor pendidikan dan pelatihan.
+2.	SKKNI (Standar Kompetensi Kerja Nasional Indonesia) adalah acuan standar kemampuan kerja yang meliputi aspek pengetahuan, ketrampilan, dan sikap kerja yang sesuai dengan aturan yang berlaku.
+3.	Kurikulum yang mengacu pada Skema KKNI/SKKNI sangat mutlak dimiliki oleh SMK karena lulusannya akan digunakan oleh IDUKA yang sangat mengimplementasikan kualitas dan prosedur kerja IDUKA. 
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait kurikulum yang mengacu pada Skema KKNI/SKKNI.
+1.	POS penyusunan kurikulum
+2.	Bukti penyusunan kurikulum (berita acara, daftar hadir, foto kegiatan)
+3.	Dokumen kurikulum skema KKNI/SKKNI yang ditandatangani oleh IDUKA dan sekolah
+</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Alat praktik adalah alat yang digunakan dalam pembelajaran praktik kejuruan di sekolah.
+2.	Ruang praktik adalah ruangan yang dibangun untuk sarana praktik siswa di sekolah.
+3.	Rasio adalah perbandingan porsi jumlah ketersediaan dan kebutuhan.
+4.	Rasio alat praktik pembelajaran kejuruan sangat penting diimplementasikan agar pembelajaran bisa tercapai secara efektif dan efisien. 
+5.	Rasio ruangan praktik adalah perbandingan jumlah ketersediaan ruang praktik yang sesuai aturan dengan kondisi real di sekolah
+Petunjuk Telaah Dokumen 
+Lakukan telaah dokumen terkait rasio alat praktik pembelajaran kejuruan.
+1.	Data inventaris alat praktik
+2.	Data pengajuan alat praktik
+3.	Data ruang praktik siswa</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Berstandar industri adalah sesuai dengan spesifikasi yang dipersyaratkan industri.
+2.	Spesifikasi alat praktik yang dipersyaratkan industri menjadi sebuah keharusan karena sangat mempengaruhi kualitas pembelajaran kejuruan yang dihasilkan.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait spesifikasi alat praktik berstandar industri.
+1.	Data inventaris alat praktik yang sesuai IDUKA
+2.	Instruksi kerja dan petunjuk K3
+3.	Data pengajuan alat praktik</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Finansial adalah sesuatu yang berhubungan dengan keuangan atau pembiayaan.
+2.	Dukungan finansial adalah salah satu faktor penting pengelolaan sekolah.  
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dukungan finansial dari masyarakat.
+1.	POS terkait dukungan finansial dari masyarakat
+2.	Bukti terkait dukungan finansial dari masyarakat
+3.	Data laporan dukungan finansial orang tua siswa
+4.	Data alternatif dukungan finansial dari sumber lain</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Finansial adalah sesuatu yang berhubungan dengan keuangan atau pembiayaan.
+2.	Dukungan finansial dari IDUKA adalah dukungan yang dikeluarkan oleh divisi CSR (Corporate Social Responsibility).
+3.	Dukungan CSR bisa berupa dana tunai ataupun alat praktik.  
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dukungan finansial dari IDUKA.
+1.	POS terkait dukungan finansial dari IDUKA
+2.	Bukti terkait dukungan finansial dari IDUKA
+3.	Data laporan sumbangan finansial dari IDUKA
+4.	Data IDUKA yang sudah memiliki kerjasama dengan sekolah
+5.	Analisis poin kerjasama dengan IDUKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Pemerintah pusat adalah penyelenggara pemerintah NKRI di pusat, yang dipimpin oleh Presiden dan Wakil Presiden dan dibantu oleh para menteri.
+2.	Pemerintah daerah adalah penyelenggara pemerintahan daerah menurut asas otonomi dan tugas pembantuan dengan prinsip otonomi seluas-luasnya dalam sistem dan prinsip Negara Kesatuan Republik Indonesia sebagaimana dimaksud dalam Undang-Undang Dasar 1945.
+3.	BOS adalah bantuan oprasional sekolah dari pemerintah pusat.
+4.	Bantuan operasional sekolah dari pemerintah provinsi (untuk sekolah negeri) dengan berbagai nama.
+5.	Bantuan operasional sekolah dari pemerintah provinsi (untuk sekolah swasta) dengan berbagai nama.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dukungan finansial dari pemerintah (pusat/daerah).
+1. Juknis terkait dukungan finansial dari pemerintah (BOS pusat/BOS daerah)
+2. Bukti dukungan finansial dari pemerintah (BOS pusat/BOS daerah)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisasi pengelola  </t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Komite sekolah adalah badan mandiri yang mewadahi peran serta masyarakat dalam rangka meningkatkan mutu, pemerataan, dan efisiensi pengelolaan pendidikan di satuan pendidikan.
+2.	Komite SMK harus memiliki peran strategis dalam membuka peluang kerjasama dengan IDUKA.
+3.	Komite sekolah harus memiliki program yang jelas untuk peningkatan mutu SMK.
+4.	Komite sekolah harus memiliki laporan kegiatan.
+5.	Komite sekolah harus memiliki analisis kebutuhan sekolah baik internal maupun eksternal.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dukungan peran dari komite sekolah.
+1.	Program komite sekolah 
+2.	Laporan kegiatan komite sekolah
+3.	Analisis kebutuhan sekolah terkait keuangan, peluang kerjasama dengan IDUKA, ide pengelolaan sekolah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Aspek adalah pemunculan atau penginterpretasian gagasan, masalah, situasi, dsb sebagai pertimbangan yang dilihat dari sudut pandang tertentu.
+2.	Dukungan Dinas Pendidikan Daerah sebagai tim penjamin mutu pendidikan daerah merupakan salah satu faktor keberhasilan peningkatan mutu pendidikan.
+3.	Dukungan harus diberikan secara adil merata, akuntabel, berbasis data ajuan yang transparan, optimal dan dilakukan secara efektif dan efisien.
+4.	Dukungan harus diperbaharui secara berkala setiap tahun.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dukungan dari Dinas Pendidikan Daerah.
+1.  Dokumen RKJM, RKT, RKAS 
+2.  Laporan kegiatan yang mencantumkan dukungan dari Dinas Pendidikan Daerah
+3.  Analisis dukungan dari Dinas Pendidikan Daerah
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Dinas terkait adalah dinas yang memiliki keterkaitan dengan program kegiatan sekolah.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dukungan dari dinas terkait.
+1.  Program kerjasama dengan dinas terkait 
+2.  Laporan kegiatan terkait kerjasama dengan dinas terkait
+3.  Analisis kerjasama dengan dinas terkait
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Mitra IDUKA adalah IDUKA yang memiliki hubungan kemitraan dalam satu atau beberapa aspek.
+2.	IDUKA tidak harus berskala besar. IDUKA yang dipilih adalah yang memiliki kontinuitas kelayakan usaha/industri yang jelas, laporan keuangan yang kredibel, perkembagan perusahaan yang bagus, dan dukungan kerjasama yang bagus dengan sekolah. 
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait bentuk kerjasama dan dukungan IDUKA.
+1.  Program kerjasama dan dukungan IDUKA 
+2.  Bukti kerjasama dan dukungan IDUKA
+3.  Analisis kerjasama dan dukungan IDUKA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Pengelolaan kurikulum adalah upaya sekolah dalam mengembangkan, mengimplementasikan dan mengevaluasi pelaksanaan kurikulum tingkat satuan pendidikan di sekolahnya secara sistematik dan berkelanjutan, dengan melibatkan berbagai pemangku kepentingan (guru, siswa, orang tua, pengawas, dinas pendidikan, dunia usaha, organisasi masyarakat atau pihak lain yang terkait). 
+2.	Kurikulum Tingkat Satuan Pendidikan (KTSP) adalah kurikulum operasional yang disusun oleh dan dilaksanakan di masing-masing satuan pendidikan".
+3.	Prosedur pengembangan kurikulum dilakukan melalui tahapan (1) analisis konteks, (2) menyusun draf atau melakukan review dokumen dalam bentuk workshop, (3) penyelarasan dengan IDUKA yang relevan, (4) penetapan oleh kepala sekolah, (5) pengesahan oleh Dinas Pendidikan Provinsi.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait sinkoronisasi dan validasi kurikulum dengan IDUKA: 
+1.	Dokumen kurikulum secara utuh 
+2.	Dokumen hasil penyelarasan dengan IDUKA 
+3.	Bukti keterlibatan IDUKA dalam pengembangan kurikulum. 
+4.	Silabus 
+5.	Program tahunan 
+6.	Program semester
+7.	Kalender akademik 
+8.	RPP 
+9.	Dokumen pengembangan kurikulum seperti notulen rapat, SK Tim, absensi kegiatan, dsb. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi 
+1.	Proses pembelajaran diarahkan kepada proses belajar, artinya siswa yang belajar. Fungsi guru adalah mengupayakan siswa belajar sehingga mencapai kompetensi yang dicantumkan dalam kompetensi dasar dan mengarah kepada berpikir tingkat tinggi (jika menggunakan taksonomi Bloom, Cognitive-4 atau C4, Cognitive-5 atau C5, dan Cognitive-6 atau C). 
+2.	Proses pembelajaran terdiri dari kegiatan pendahuluan, kegiatan inti dan penutup. Sesuai dengan prinsip kerucut Dale, siswa akan mencapai pemahaman lebih baik jika mencoba-coba sendiri, berdiskusi dengan teman dan yang tertinggi jika diberi kesempatan menjelaskan kepada orang lain. 
+3.	Kegiatan pendahuluan diawali dengan memotivasi siswa untuk mengikuti pelajaran dengan mengaitkan dengan kehidupan riil dan familiar yang dekat dengan siswa serta mengungkapkan pengetahuan awal siswa yang berhubungan dengan materi yang akan diajarkan.
+4.	 Kegiatan inti merupakan langkah-langkah kegiatan yang dilakukan oleh siswa dan guru dalam mendapatkan pengalaman belajar yang bermakna. 
+5.	Kegiatan penutup berupa pengambilan kesimpulan hasil pembelajaran dan refleksi dari hasil pembelajaran yang telah dilalui. 
+6.	Idealnya proses pembelajaran mengikuti sintaks seperti dirancang dalam RPP. Namun guru harus dapat membuat siswa termotivasi belajar dan menikmati proses pembelajaran. Oleh karena itu jika ternyata siswa tidak antusias belajar dan atau siswa sulit memahami materi ajar, maka guru harus segera mengubah sintaks bahkan strategi pembelajaran. Kejadian seperti itu dicatat dalam jurnal pembelajaran sebagai pertimbangan menyempurnakan RPP pada waktu selanjutnya. 
+7.	Jurnal /catatan harian guru berisi catatan kegiatan yang ditulis secara rinci tentang pelaksanaan pembelajaran. 
+8.	Dokumen supervisi kepala sekolah/madrasah berisi catatan hasil supervisi kepala sekolah/madrasah pada kegiatan pembelajaran.
+Petunjuk Telaah Dokumen 
+Lakukan telaah dokumen terkait : 
+1.	Kegiatan dan program guru dalam melaksanakan pembelajaran sesuai RPP dan hasil telaah yang dilakukan
+2.	Dokumen RPP
+3.	Agenda harian guru
+4.	Dokumen supervisi kepala sekolah/madrasah
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Sarana pendidikan adalah semua fasilitas yang diperlukan dalam proses belajar mengajar, baik yang bergerak maupun yang tidak bergerak agar pencapaian tujuan pendidikan dan berjalan dengan lancar, teratur, efektif dan efisien. 
+2.	Prasarana pendidikan adalah fasilitas yang secara tidak langsung menunjang jalannya proses pendidikan, seperti: halaman, kebun, kolam, atau taman sekolah, dan sebagainya. 
+▪ Dapat mendukung kegiatan pembelajaran sesuai karakteristik setiap mata pelajaran yang ada. 
+▪ Memenuhi aturan keamanan 
+▪ Harus sesuai dengan karakteristik alamiah anak 
+▪ Harus didasarkan pada kebutuhan anak dan 
+▪ secara estetis harus menyenangkan.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait kualitas pembelajaran di kelas:
+1.	Rencana Pelaksanaan Pembelajaran (RPP) terutama dalam hal penggunaan media dan sumber belajar 
+2.	Dokumen tentang sarana dan prasarana yang bisa digunakan dalam pembelajaran 
+3.	Tata tertib pemanfaatan sarana prasarana memuat beberapa anjuran dan larangan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi: 
+a.	Penilaian adalah proses pengumpulan dan pengolahan informasi untuk mengukur pencapaian hasil belajar peserta didik. dalam rangka memperbaiki proses pembelajaran. 
+b.	Penilaian hasil belajar oleh pendidik bertujuan untuk memantau dan mengevaluasi proses, dan daya serap peserta didik
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait kualitas pembelajaran di kelas:
+1.	Dokumen RPP
+2.	Instrumen penilaian pengetahuan, sikap (karakter), keterampilan 
+3.	Pelaksanaan penilaian proses dan penilaian hasil belajar
+4.	Agenda harian guru
+5.	Dokumen penilaian (soal dan skor yang diperoleh). </t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Kunjungan IDUKA adalah merupakan salah satu jenis kegiatan pembelajaran diluar lingkungan sekolah untuk menambah wawasan siswa dan serta untuk melihat langsung bagaimana suasana/kondisi industri yang sesuai dengan program keahlian masing-masing.
+Petunjuk Telaah Dokumen:
+Lakukan telaah dokumen terkait Kualitas Kualitas Pembelajaran di luar kelas/IDUKA
+1.	perencanaan kujungan IDUKA; 
+2.	Pemetaan IDUKA yang relevan dengan kompetensi keahlian; 
+3.	Pelaksanaan kunjungan IDUKA; 
+4.	Laporan kunjungan IDUKA; dan 
+5.	Evaluasi kujungan IDUKA.</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Program Teaching Factory adalah suatu konsep pembelajaran di SMK berbasis produksi atau jasa yang mengacu kepada standar dan prosedur yang berlaku di industri. Program ini dilaksanakan dalam suasana seperti layaknya industri
+Petunjuk Telaah Dokumen 
+Lakukan telaah dokumen terkait penyelenggaraan TEFA di sekolah, meliputi:
+1.	Program kerja tefa baik berupa bantuan dari pusat maupun mandiri
+2.	Sinkronisasi kurikulum TEFA
+3.	MOU dengan IDUKA
+4.	Pembelajaran system blok
+5.	Produk yang dihasilkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Unit produksi merupakan suatu sarana pembelajaran dan berwirausaha bagi siswa dan guru serta memberi dukungan biaya operasional sekolah. Sarana pembelajaran yang dimaksud adalah tempat belajar bagi guru dan siswa untuk meningkatkan kemampuan pengetahuan, keterampilan dan pembentukan sikap kerja, karena dalam kegiatan unit produksi terdapat proses belajar secara langsung dalam menghadapi permasalahan kerja sesungguhnya. Makna unit produksi sebagai sarana berwirausaha karena guru dan siswa berlatih menjaga kelangsungan kegiatan unit produksi melalui pengembangan pemasaran dan menjaga kepercayaan konsumen. Makna sebagai penghasil dana masukan adalah kegiatan unit produksi menghasilkan produk atau jasa bernilai ekonomi, sehingga pengelola dan pelaksana mendapat imbalan jasa. Selain itu keuntungan dari hasil penjualan barang / jasa dapat digunakan sebagai biaya operasional sekolah. (Dir. PSMK : 2007) 
+2.	Unit produksi sekolah menengah kejuruan adalah suatu proses kegiatan usaha yang dilakukan sekolah / madrasah dan lingkungan dalam bentuk unit usaha secara berkesinambungan, bersifat akademis dan bisnis dengan memberdayakan warga sekolah / madrasah dan lingkungan dalam bentuk unit usaha produksi / jasa yang dikelola secara profesional. (Bambang Sartono: 2006)
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait pelaksanaan pembelajaran berbasis industri:
+1. POS Unit Produksi
+2. Sistem akuntansi dan laporan keuangan
+3. Cakupan layanan
+4. Unit produksi bagian dari pembelajaran
+</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Kelas industri merupakan program pengadaan kelas khusus dalam lingkungan SMK. Kelas ini dikelola secara bersama antara sekolah dengan Industri. Pada kelas industri pembelajarannya lebih spesifik dengan mengarah kepada sebuah produk, di mana ruang praktiknya di-setting seperti training center-nya industri dengan pembelajaran sesuai standar industri. Tidak hanya kurikulum, para pengajar/guru diberi pelatihan oleh industri selama kurang lebih satu bulan sesuai standar yang diinginkan perusahaan. Saat pembelajaran di kelas, beberapa kali pihak industri turut memberikan materi kepada siswa. 
+2.	Kelas wirausaha merupakan program pembelajaran yang bertujuan untuk menanamkan nilai kewirausahaan melalui pembiasaan, penanaman sikap dan pemeliharaan perilaku wirausaha. Kelas kewirausahaan menerapkan pengintegrasian mata pelajaran kewirausahaan pada setiap muatan produktif. 
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait pelaksanaan pembelajaran berbasis industri:
+1.	POS pelaksanaan kelas industri atau kelas kewirausahaan
+2.	Program kelas wirausaha dan atau kelas industri
+3.	Kurikulum kelas industri (Buku I, II, dan III)
+4.	SK  dan uraian tugas pengelola kelas industri dan atau kelas wirausaha
+5.	Dokumen sarana dan prasarana kelas industri atau kelas wirausaha
+6.	Bukti kerja sama dengan pihak luar sekolah dalam penyelenggaraan kelas khusus
+7.	Pelaksanaan pembelajaran dan penilaian di kelas wirausaha atau kelas industri 
+8.	Bukti evaluasi penyelenggaraan kelas industri atau kelas wirausaha</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Produk adalah hasil proses produksi yang dilakukan oleh produsen atau perusahaan yang nantinya akan dijual kepada konsumen yang membutuhkan. atau dapat juga dikatakan suatu barang/jasa yang memiliki nilai tambah atau memberikan kemanfaatan bagi penggunanya yang dihasilkan dari proses produksi.
+2.	Produk teaching factory adalah produk yang dihasilkan oleh sekolah melalui kegiatan teaching factory atau unit produksi masing-masing kompetensi keahlian yang ada di sekolah
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait produk/jasa hasil Teaching Factory:
+1.	Rancangan design produk yang akan dihasilkan 
+2.	Produk yang telah di hasilkan
+3.	Kemasan produk
+4.	Pengiriman
+5.	Kepuasan pelanggan
+6.	Keberlanjutan</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	RPP yang lengkap yang memuat komponen Identitas sekolah dan identitas mapel, tujuan pembelajaran berdasarkan KD, Indikator pencapaian Kompetensi, materi pembelajaran, strategi pembelajaran yang digunakan untuk mencapai KD yang sesuai karakteristik peserta didik, media pembelajaran sebagai alat bantu proses pembelajaran (termasuk IT), sumber belajar yang relevan seperti buku dan lingkungan sekitar.
+2.	Guru mengembangkan profesionalismenya dengan melakukan evaluasi dan refleksi diri secara maksimal untuk perbaikan proses pembelajaran.
+3.	Guru melakukan usaha-usaha inovatif dan kreatif berupa mengembangkan strategi, model, metode, dan teknik pembelajaran aktif.
+4.	Pembelajaran aktif antara lain dapat dilihat dari aktivitas KBM yang menempatkan siswa sebagai subyek dalam kegiatan pembelajaran, misalnya 5M (mengamati, mempertanyakan, melakukan pengumpulan data/informasi, menganalisis, dan mengomunikasikan hasil). 
+5.	Pembelajaran kreatif dan inovatif yaitu pembelajaran yang memfasilitasi siswa menjadi kreatif dan inovatif, antara lain dapat dilihat dari tugas yang harus diselesaikan siswa, misalnya merancang penyelidikan sederhana, melakukan wawancara ke masyarakat, melakukan tugas proyek, atau menghasilkan produk tertentu berdasarkan ide-ide siswa sendiri. 
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait pengembangan SDM Sekolah meliputi:
+1.	Program pengembangan pendidik
+2.	POS program pengembangan pendidik
+3.	Bukti terkait pelaksanan program pengembangan pendidik</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+a.	Program peningkatan kompetensi profesional guru adalah program yang di susun, dilaksanakan oleh meningkatkan kompetensi profesional guru
+b.	Kunjungan IDUKA adalah kegiatan yang dilaksanakan untuk meningkatkan kompetensi profesional guru dengan melakukan kunjungan IDUKA
+c.	Magang IDUKA adalah kegiatan yang dilaksanakan untuk meningkatkan kompetensi profesional guru dengan melakukan Magang IDUKA
+d.	Pendidikan dan latihan adalah kegiatan yang dilaksanakan untuk meningkatkan kompetensi profesional guru dengan melakukan pendidikan dan latihan baik di dalam maupun di luar negeri
+e.	Seminar dan workshop adalah kegiatan yang dilaksanakan untuk meningkatkan kompetensi profesional guru dengan mengikuti seminar dan workshop baik di dalam maupun di luar negeri
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait program peningkatan kompetensi profesional guru:
+2.	Program pengembangan pendidik
+3.	POS program pengembangan pendidik
+4.	Bukti terkait pelaksanan program pengembangan pendidik</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+a.	Program peningkatan kompetensi profesional guru adalah program yang di susun, dilaksanakan oleh meningkatkan kompetensi tenaga kependidikan
+b.	Kunjungan IDUKA adalah kegiatan yang dilaksanakan untuk meningkatkan kompetensi tenaga kependidikan dengan melakukan kunjungan IDUKA
+c.	Magang IDUKA adalah kegiatan yang dilaksanakan untuk meningkatkan kompetensi tenaga kependidikan dengan melakukan Magang IDUKA
+d.	Pendidikan dan latihan adalah kegiatan yang dilaksanakan untuk meningkatkan kompetensi tenaga kependidikan dengan melakukan pendidikan dan latihan baik di dalam maupun di luar negeri
+e.	Bimbingan teknis adalah kegiatan yang dilaksanakan untuk meningkatkan kompetensi tenaga kependidikan dengan mengikuti Bimbingan teknis baik di dalam maupun di luar negeri
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait peningkatan kompetensi tenaga kependidikan
+1.	Program pengembangan tenaga kependidikan
+2.	POS program pengembangan tenaga kependidikan
+3.	Bukti terkait pelaksanan program pengembangan tenaga kependidikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pemberdayaan kemitraan IDUKA </t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Praktek kerja lapangan (PKL) adalah kegiatan pendidikan, pelatihan, dan pembelajaran di bidang usaha atau industri (IDUKA) yang relevan sesuai bidangnya. Dalam pelaksanaannya, praktek kerja lapangan (PKL) dilakukan dengan prosedur tertentu dan mematuhi ketentuan yang diterapkan oleh IDUKA. 
+2.	Kualitas Praktek kerja lapangan (PKL) yang dilaksanakan sekolah dinilai dari: 
+1) Relevansi kompetensi keahlian siswa dengan jenis IDUKA lokasi praktek kerja lapangan (PKL); 
+2) Kesesuaian kompetensi keahlian siswa dengan job description (pembagian kerja) selama praktek kerja lapangan (PKL); 
+3) Kecukupan waktu praktek kerja lapangan (PKL); dan 
+4) Laporan dan hasil evaluasi praktek kerja lapangan (PKL)
+3.	Kecukupan waktu praktek kerja lapangan (PKL) siswa adalah selama 6 - 12 bulan di IDUKA. 
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait praktik kerja lapangan siswa:
+1.	POS praktek kerja lapangan (PKL)
+2.	Dokumen laporan praktek kerja lapangan (PKL) siswa 
+3.	Daftar perusahaan/IDUKA mitra praktek kerja lapangan (PKL) 
+4.	Dokumen MoU praktek kerja lapangan (PKL) antara Sekolah dan Perusahaan/IDUKA. 
+5.	Fotokopi sertifikat peserta praktek kerja lapangan (PKL) 
+6.	Dokumen evaluasi dan rekomendasi hasil praktek kerja lapangan (PKL)</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Magang guru di IDUKA, merupakan salah satu program yang dilaksanakan oleh sekolah dan IDUKA dalam upaya meningkatkan profesionalitas guru yang ditandai dengan kemampuannya membelajarkan siswa sesuai dengan tuntutan dunia industri.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait Praktik Kerja Magang Guru yang meliputi:
+1.	Perencaan program magang guru di IDUKA; 
+2.	Pelaksanaan program magang guru di IDUKA, 
+3.	Laporan magang guru di IDUKA; 
+4.	Sertifikat magang guru di IDUKA; 
+5.	Laporan evaluasi magang guru di IDUKA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Guru tamu merupakan guru yang didatangkan oleh sekolah dari luar sekolah (IDUKA atau organisasi penyedia guru tamu), dengan tujuan memberikan wawasan yang berbeda bagi siswa terkait mata pelajaran produktif. Wawasan ini biasanya terkait dengan kegiatan real di perusahaan tempat guru tamu bekerja sehari-hari.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait Guru Tamu yang meliputi:
+1.	Program mendatangkan guru tamu
+2.	Proses permohonan guru tamu
+3.	Jadwal guru tamu
+4.	Agenda pelaksanaan pembelajaran guru tamu
+5.	Daftar hadir guru tamu
+6.	Evaluasi program mendatangkan guru tamu yang disusun oleh sekolah dan guru tamu
+7.	Tindak lanjut
+</t>
+  </si>
+  <si>
+    <t>TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+instruktur merupakan guru yang didatangkan oleh sekolah dari luar sekolah (IDUKA), dengan tujuan memberikan bimbingan secara intensif bagi siswa terkait proses pelaksanaan pembelajaran mata pelajaran produktif. 
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait Instruktur yang meliputi:
+1.	Program mendatangkan insruktur
+2.	Proses permohonan insruktur
+3.	Jadwal insruktur
+4.	Agenda pelaksanaan pembelajaran insruktur 
+5.	Daftar hadir insruktur
+6.	Evaluasi program mendatangkan guru tamu yang disusun oleh sekolah dan insruktur
+7.	Tindak lanjut</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Sarana dan prasarana praktik adalah segala sesuatu yang dapat digunakan untuk menyalurkan bahan pelajaran yang dapat merangsang pikiran, perasaan, perhatian, dan kemauan siswa, sehingga mendorong terjadinya proses belajar pada siswa.
+2.	Bagi SMK sarana dan prasarana praktik yang paling ideal adalah sarana dan prasarana praktik yang sesuai dengan pekerjaan di industry.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait Bantuan Sarana Praktik yang meliputi:
+1.	Daftar sarana dan prasarana praktik
+2.	Daftar sumber pemenuhan sarana dan prasarana praktik
+3.	Jadwal pemeliharaan sarana dan prasarana praktik</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Produk merupakan hasil pekerjaan yang dilakukan di bengkel sekolah
+2.	Produk di buat sesuai dengan pesanan dari IDUKA pasangan
+3.	Produk yang di hasilkan sesuai dengan tandar dan Qualty Assurance dari IDUKA pasangan
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait Mentoring project berbasis order yang meliputi:
+1.	Daftar pesanan produk dari IDUKA
+2.	Proses pembuatan 
+3.	Daftar produk jadi
+4.	Pengepakan, dan 
+5.	Pengiriman ke IDUKA</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Budaya Kerja adalah suatu falsafah dengan didasari pandangan hidup sebagai nilai-nilai yang menjadi sifat, kebiasaan dan juga pendorong yang dibudayakan dalam suatu kelompok dan tercermin dalam sikap menjadi perilaku, cita-cita, pendapat, pandangan serta tindakan yang terwujud sebagai kerja atau bekerja.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait Pelaksanaan budaya kerja yang meliputi:
+1.	Program penerapan budaya kerja di bengkel
+2.	Laporan implementasi budaya kerja di bengkel
+3.	Evaluasi implementasi budaya kerja di bengkel</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Uji Kompetensi Keahlian adalah tatacara yang merupakan bagian dari asesmen untuk mengukur kompetensi peserta sertifikasi menggunakan satu atau beberapa cara seperti tertulis, lisan, praktek, dan pengamatan, sebagaimana ditetapkan dalam skema sertifikasi
+2.	LSP SMK adalah Lembaga Sertifikasi Profesi yang didirikan oleh SMK dengan tujuan utama melaksanakan sertifikasi kompetensi kerja terhadap siswa SMK berbasis kompetensi dan/atau siswa dari jejaring kerja lembaga induknya, sesuai ruang lingkup yang diberikan oleh BNSP
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait Uji Sertifikasi Kompetensi yang meliputi:
+1.	Program kerja uji kompetensi siswa
+2.	Laporan uji kompetensi siswa
+3.	Daftar nilai uji kompetensi siswa
+4.	Evaluasi kegiatan uji kompetensi siswa</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Orang tua adalah salah satu mitra sekolah yang dapat berperan serta dalam pembelajaran, perencanaan/pengembangan maupun dalam pengelolaan kelas yang dapat meningkatkan suatu mutu pendidikan sekolah.
+2.	Dukungan indsutri terhadap Pendidikan dapat berupa dukungan SDM sebagai guru tamu atau instruktur, dukungan sarana dan prasarana, dukungan program pembuatan produk, dukungan magang guru, dukungan PKL siswa
+3.	Dukungan dari Dinas Pendidikan terhadap dunia Pendidikan dapat berupa dukungan pembimbingan sekolah melalui pengawas Pembina, kantor cabang dinas Pendidikan. Dukungan program bantuan seperti DAK RPS, RKM, Lab dan sarana lain.
+4.	Dukungan dari Kementerian Pendidikan dan Kebudayaan terhadap dunia Pendidikan dapat berupa dukungan pembimbingan dan pengembangan sekolah seperti progam peningkatan SMK CoE, Tefa, peningkatan SDM sekolah (Kepala Sekolah, guru, staff administrasi, laboran, kepustakaan)
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait Penggalangan dukungan berupa program kegiatan, keuangan, dan fasilitasi lainnya yang meliputi:
+1.	Dokumen dukungan masyarakat
+2.	Dokumen dukungan dari IDUKA
+3.	Dokumen dukungan dari Dinas Pendidikan Provinsi 
+4.	Dokumen dukungan dari Kementerian Pendidikan dan kebudayaan</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+IDUKA adalah kepanjangan dari Industri dan Dunia Kerja
+Sertifikasi IDUKA merupakan bentuk uji kompetensi keahlian siswa setelah melaksanakan praktik kerja/magang oleh pihak IDUKA penyelenggara dan dibuktikan melalui sertifikat hasil praktik kerja.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait mutu lulusan berstandar industri:
+1.	Sertifikat Kompetensi Siswa 
+2.	Jadwal Praktik Kerja/Magang IDUKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+KKNI (Kerangka Kualifikasi Nasional Indonesia) adalah kerangka penjenjangan kualifikasi sumber daya manusia Indonesia yang menyandingkan, menyetarakan, dan mengintegrasikan sektor pendidikan dengan sektor pelatihan dan pengalaman kerja dalam  suatu skema pengakuan kemampuan kerja yang disesuaikan dengan struktur di berbagai sektor pekerjaan. 
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait Lulusan bersertifikat kompetensi BNSP :
+1.	Skema KKNI Level II/III SMK 
+2.	Sertifikat Kompetensi Siswa Berbasis LSP/BNSP
+3.	Daftar Rekapitulasi Siswa/Lulusan Tersertifikasi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outcome </t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Bekerja adalah melakukan kegiatan/pekerjaan paling sedikit satu jam berturut-turut selama seminggu yang lalu dengan maksud untuk memperoleh atau membantu memperoleh pendapatan atau keuntungan.
+Berwirausaha adalah suatu kegiatan usaha yang melibatkan kemampuan untuk melihat kesempatan-kesempatan usaha yang kemudian mengorganisisr, mengatur, mengambil resiko, dan mengembangkan usaha yang diciptakan tersebut guna meraih keuntungan.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait keterserapan lulusan bekerja :
+1.	Prosedur Mutu (POS)/Instruksi Kerja Penelusuran Tamatan
+2.	Daftar rekapitulasi jumlah siswa/lulusan tahun terakhir
+3.	Daftar rekapitulasi penelusuran keterserapan lulusan satu tahun terakhir</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Gaji adalah suatu bentuk pembayaran secara berkala dari seorang majikan pada karyawannya yang dinyatakan dalam suatu kontrak kerja.
+UMR adalah singkatan dari Upah Minimum Regional yang merupakan suatu standar minimum yang digunakan oleh para pengusaha atau pelaku industri untuk memberikan upah kepada pekerja, pegawai ataupun buruh di dalam lingkungan usaha atau kerjanya.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen terkait gaji minimum standar UMR
+1.	Prosedur Mutu (POS)/Instruksi Kerja Penelusuran Tamatan
+2.	Data rekapitulasi jumlah lulusan tahun terakhir
+3.	Data rekapitulasi penelusuran keterserapan lulusan satu tahun terakhir
+4.	Daftar gaji siswa/lulusan yang bekerja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Pengembangan diri merupakan kegiatan yang dilakukan peserta didik dalam mengembangkan diri dan mengekspresikan diri sesuai bakat dan minatnya untuk bekerja, melanjutkan pendidikan, dan berwirausaha.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+1.	Prosedur Mutu (POS)/Instruksi Kerja Penelusuran Tamatan
+2.	Data rekapitulasi penulusuran siswa/alumni yang melanjutkan ke tingkat pendidikan yang lebih tinggi (diploma/sarjana)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Pengembangan diri merupakan kegiatan yang dilakukan peserta didik dalam mengembangkan diri dan mengekspresikan diri sesuai bakat dan minatnya untuk bekerja, melanjutkan pendidikan, dan berwirausaha.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+1.	Prosedur Mutu (POS)/Instruksi Kerja Penelusuran Tamatan
+2.	Data rekapitulasi penulusuran siswa/alumni yang bekerja
+3.	Data rekapitulasi penelusuran siswa/alumni yang bekerja sesuai kompetensi keahlian
+</t>
+  </si>
+  <si>
+    <t>Pengembangan kewirausahaan lulusan</t>
+  </si>
+  <si>
+    <t>Persentase siswa/lulusan yang mengikuti program pembinaan bisnis atau inkubator bisnis</t>
+  </si>
+  <si>
+    <t>Siswa/lulusan sekolah yang  memiliki minat berwirausaha mendapatkan program tindaklanjut pembinaan pengembangan bisnis/business coaching atau inkubator bisnis yang difasilitasi sekolah atau pihak lain.</t>
+  </si>
+  <si>
+    <t>76%-100% dari jumlah siswa terdata berwirausaha (tiga tahun terakhir) di sekolah mengikuti program pengembangan bisnis/inkubator bisnis yang difasilitasi sekolah/pihak lain</t>
+  </si>
+  <si>
+    <t>51%-75% dari jumlah siswa terdata berwirausaha (tiga tahun terakhir) di sekolah mengikuti program pengembangan bisnis/inkubator bisnis yang difasilitasi sekolah/pihak lain</t>
+  </si>
+  <si>
+    <t>26%-50% dari jumlah siswa terdata berwirausaha (tiga tahun terakhir) di sekolah mengikuti program pengembangan bisnis/inkubator bisnis yang difasilitasi sekolah/pihak lain</t>
+  </si>
+  <si>
+    <t>1%-25% dari jumlah siswa terdata berwirausaha (tiga tahun terakhir) di sekolah mengikuti program pengembangan bisnis/inkubator bisnis yang difasilitasi sekolah/pihak lain</t>
+  </si>
+  <si>
+    <t>Siswa yang terdata berwirausaha (tiga tahun terakhir) di sekolah tidak mengikuti program pengembangan bisnis/inkubator bisnis yang difasilitasi sekolah/pihak lain</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Inkubator bisnis adalah perusahaan / lembaga yang memberikan suatu program yang didesain untuk membina dan mempercepat keberhasilan pengembangan bisnis melalui rangkaian program permodalan yang diikuti oleh dukungan kemitraan / pembinaan elemen bisnis lainnya dengan tujuan menjadikan usaha tersebut menjadi perusahaan yang profitable, memiliki pengelolaan organisasi dan keuangan yang benar, serta menjadi perusahaan yang sustainable, hingga akhirnya memiliki dampak positif bagi masyarakat.
+Business Coaching adalah program pembinaan atau konsultasi seputar permodalan/keuangan, marketing, SDM, produksi, dan aspek pengelolaan bisnis lainnya kepada para startup (pebisnis pemula) dalam mengembangkan bisnis sehingga dapat berkembang menjadi suatu perusahaan yang mapan.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+1.	Prosedur Mutu (POS)/Instruksi Kerja Penelusuran Tamatan
+2.	Data rekapitulasi penelusuran siswa/lulusan yang berwirausaha dalam tiga tahun terakhir
+3.	Program pelaksanaan pembinaan bisnis/inkubator bisnis bagi para siswa berwirausaha
+4.	Data rekapitulasi siswa/lulusan yang mengikuti pembinaan bisnis/inkubator bisnis</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Teaching factory adalah suatu model pembelajaran di SMK (pengembangan dari unit produksi) yang menerapkan sistem industri di unit produksi yang telah ada di SMK. Unit produksi adalah pengembangan bidang usaha sekolah selain untuk menambah penghasilan sekolah yang dapat digunakan dalam upaya pemeliharaan peralatan, peningkatan SDM, dll juga untuk memberikan pengalaman kerja yang benar-benar nyata pada siswanya.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+1.	Prosedur Mutu (POS) / Instruksi Kerja Pengelolaan TeFa
+2.	Data jumlah Kompetensi Keahlian (KK) dan  KK yang melaksanakan TeFa
+3.	RPP (Rencana Pelaksanaan Pembelajaran) pada mapel yang menerapkan TeFa
+4.	Jadwal Pelajaran atau Jadwal Praktik TeFa Siswa di Unit Produksi</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Teaching factory adalah suatu model pembelajaran di SMK (pengembangan dari unit produksi) yang menerapkan sistem industri di unit produksi yang telah ada di SMK. Unit produksi adalah pengembangan bidang usaha sekolah selain untuk menambah penghasilan sekolah yang dapat digunakan dalam upaya pemeliharaan peralatan, peningkatan SDM, dll juga untuk memberikan pengalaman kerja yang benar-benar nyata pada siswanya.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+1.	Daftar produk barang/jasa yang diproduksi oleh TeFa sekolah
+2.	Rekapitulasi penjualan produk TeFa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Profil sukses merupakan suatu deskripsi yang menjelaskan biografi singkat kesuksesan alumni/lulusan (disertai foto alumni) sekolah yang bekerja/berwirausaha sesuai dengan kompetensi keahliannya.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+1.	Data jumlah profil sukses alumni/lulusan yang dimiliki sekolah
+2.	Buku induk sekolah
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Prestasi akademik adalah suatu pencapaian atas kemampuan, kecakapan, dan prestasi yang didapatkan seseorang atas kemampuannya di bidang sains/ilmu pengetahuan yang bersifat ilmiah. Contoh Lomba olimpiade sains, juara LKS SMK, Juara cerdas cermat.
+Prestasi non akademik adalah suatu pencapaian atas kemampuan, kecakapan, dan prestasi yang didapatkan seseorang atas kemampuannya di luar bidang sains/ilmu pengetahuan yang bersifat ilmiah seperti olahraga dan seni. Contoh Juara lomba panjat tebing, juara beladiri, juara hafal Al-Quran.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+Daftar prestasi akademik dan non akademik yang dimiliki sekolah
+</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+SDM yang dimanfaatkan oleh stakeholder dalam konteks kerjasama profesional adalah bentuk kerjasama antar dua lembaga sekolah dengan perusahaan/lembaga dalam membantu meningkatkan 
+Petunjuk Telaah Dokumen 
+Lakukan telaah dokumen Lakukan telaah berkembangnya kelembagaan SMK (TEFA/UP, SDM Sekolah, Perolehan  Dukungan):
+1.	Bukti korespondensi permintaan/permohonan bantuan SDM dari stakeholders/pihak eksternal
+2.	Laporan kegiatan kerjasama yang dilakukan oleh SDM sekolah dan stakeholders/pihak eksternal</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Kemitraan adalah jalinan kerjasama hubungan timbal balik, saling menguntungkan yang terjalin berdasarkan kepedulian, kesetaraan dan kebersamaan yang sinergis antara pemerintah, masyarakat, dan dunia usaha dalam pembangunan kesejahteraan sosial
+Contoh bidang kemitraan : keamanan, kesehatan, kemasyarakatan, sosial, ekonomi, budaya, teknologi, lingkungan hidup, dan lainnya
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+1.	Bukti korespondensi sekolah dengan pihak eksternal
+2.	MoU atau Naskah kerjasama antara dua pihak sekolah dan pihak eksternal
+3.	Dokumentasi kegiatan kerjasama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+PPDB (Penerimaan Peserta Didik Baru) merupakan kegiatan penerimaan calon peserta didik baru yang dilaksanakan sekolah di awal tahun pelajaran.
+Kuota PPDB adalah jumlah tertinggi dari pendaftar PPDB yang ditentukan oleh sekolah /pemerintah
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+Rekap data pendaftar PPDB sekolah di tahun terakhir
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+CSR (Corporate Social Responsibility) atau tanggung jawab sosial perusahaan adalah suatu bentuk konsep tanggung jawab organisasi/perusahaan terhadap konsumen, karyawan, komunitas, atau lingkungan yang dapat memberikan dampak positif terhadap penyelesaian masalah-masalah yang dihadapi secara sosial.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+Dokumen bukti penerimaan CSR dari pihak eksternal
+Dokumentasi kegiatan CSR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+BLUD (Badan Layanan Umum Daerah) adalah Satuan Kerja Perangkat Daerah (SKPD) atau Unit Kerja pada SKPD di lingkungan pemerintah daerah yang dibentuk untuk memberikan pelayanan kepada masyarakat berupa penyediaan barang dan/atau jasa yang dijual tanpa mengutamakan mencari keuntungan, dan dalam melakukan kegiatannya didasarkan pada prinsip efisiensi dan produktivitas.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk Penerapan pengelolaan sekolah berbasis BLUD :
+-	Dokumen pengelolaan BLUD sekolah 
+</t>
   </si>
 </sst>
 </file>
@@ -2195,37 +2910,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2248,11 +2979,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2266,32 +3023,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2299,6 +3095,186 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2625,8 +3601,8 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48:B50"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2650,10 +3626,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2662,2366 +3638,2429 @@
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="7">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="D2" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>133</v>
+      <c r="L2" s="6" t="s">
+        <v>524</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="7">
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="F3" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="J4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="K4" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="L4" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="D5" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="J5" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="K5" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="L5" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>154</v>
+      <c r="L6" s="6" t="s">
+        <v>528</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="D7" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="J7" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="K7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="D8" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>161</v>
+      <c r="L8" s="6" t="s">
+        <v>530</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9">
         <v>4</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="D9" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="J9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="L9" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="H10" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="I10" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="J10" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="K10" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="L10" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="C11" s="7">
+        <v>470</v>
+      </c>
+      <c r="C11" s="6">
         <v>4</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="E11" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="J11" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="K11" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="L11" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="C12" s="7">
+        <v>470</v>
+      </c>
+      <c r="C12" s="6">
         <v>4</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="I12" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="J12" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="K12" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="L12" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C13" s="6">
         <v>4</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="H13" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="J13" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="K13" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="L13" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C14" s="6">
         <v>4</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="H14" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="I14" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="J14" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="K14" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="L14" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="B15" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C15" s="10">
         <v>3</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="D15" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="K15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>204</v>
+      <c r="L15" s="6" t="s">
+        <v>537</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="I16" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="J16" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="K16" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="L16" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="B17" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C17" s="11">
         <v>3</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="I17" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="J17" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="K17" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="L17" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="C18" s="7">
+        <v>540</v>
+      </c>
+      <c r="C18" s="6">
         <v>2</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="D18" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="I18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="C19" s="7">
+        <v>540</v>
+      </c>
+      <c r="C19" s="6">
         <v>2</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="H19" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="J19" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="K19" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="L19" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="C20" s="7">
+        <v>540</v>
+      </c>
+      <c r="C20" s="6">
         <v>2</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F20" s="9" t="s">
+      <c r="D20" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="I20" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="J20" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="K20" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="L20" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="C21" s="7">
+        <v>486</v>
+      </c>
+      <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="D21" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="I21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="J21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="K21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>237</v>
+      <c r="L21" s="6" t="s">
+        <v>544</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="A22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="C22" s="13">
         <v>4</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="D22" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="I22" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="J22" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="K22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="14">
+        <v>8</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="7">
-        <v>8</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="G23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="I23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="J23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="K23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>244</v>
+      <c r="L23" s="14" t="s">
+        <v>546</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="14">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="7">
-        <v>8</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="I24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="J24" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="K24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>245</v>
+      <c r="L24" s="14" t="s">
+        <v>547</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="14">
+        <v>8</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="7">
-        <v>8</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="H25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="I25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="J25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="K25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>246</v>
+      <c r="L25" s="14" t="s">
+        <v>548</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="A26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="14">
         <v>8</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="D26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="I26" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="J26" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="K26" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="L26" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>47</v>
+      <c r="A27" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="7">
-        <v>8</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>516</v>
+        <v>500</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>550</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>47</v>
+      <c r="A28" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="C28" s="7">
+        <v>500</v>
+      </c>
+      <c r="C28" s="6">
         <v>4</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="9" t="s">
+      <c r="D28" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="L28" s="9" t="s">
-        <v>254</v>
+      <c r="G28" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>551</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>47</v>
+      <c r="A29" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="C29" s="7">
+        <v>500</v>
+      </c>
+      <c r="C29" s="6">
         <v>4</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29" s="9" t="s">
+      <c r="D29" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="L29" s="9" t="s">
-        <v>255</v>
+      <c r="I29" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>552</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>47</v>
+      <c r="A30" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="C30" s="7">
+        <v>500</v>
+      </c>
+      <c r="C30" s="6">
         <v>4</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="F30" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>47</v>
+      <c r="A31" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="C31" s="7">
+        <v>89</v>
+      </c>
+      <c r="C31" s="6">
         <v>4</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="J31" s="9" t="s">
+      <c r="D31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>47</v>
+      <c r="A32" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="7">
+        <v>89</v>
+      </c>
+      <c r="C32" s="6">
         <v>4</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="J32" s="9" t="s">
+      <c r="D32" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>47</v>
+      <c r="A33" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="7">
+        <v>89</v>
+      </c>
+      <c r="C33" s="6">
         <v>4</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="J33" s="9" t="s">
+      <c r="D33" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>47</v>
+      <c r="A34" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="7">
+        <v>557</v>
+      </c>
+      <c r="C34" s="6">
         <v>4</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="J34" s="9" t="s">
+      <c r="D34" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>47</v>
+      <c r="A35" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C35" s="6">
+        <v>4</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C35" s="7">
-        <v>4</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="H35" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>47</v>
+      <c r="A36" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C36" s="7">
+        <v>557</v>
+      </c>
+      <c r="C36" s="6">
         <v>4</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="I36" s="9" t="s">
+      <c r="D36" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>47</v>
+      <c r="A37" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C37" s="7">
+        <v>557</v>
+      </c>
+      <c r="C37" s="6">
         <v>4</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K37" s="9" t="s">
+      <c r="D37" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L37" s="9" t="s">
-        <v>305</v>
+      <c r="F37" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>561</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>47</v>
+      <c r="A38" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C38" s="7">
+        <v>557</v>
+      </c>
+      <c r="C38" s="6">
         <v>4</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K38" s="9" t="s">
+      <c r="D38" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="F38" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>306</v>
       </c>
+      <c r="I38" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>562</v>
+      </c>
       <c r="M38" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>47</v>
+      <c r="A39" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C39" s="7">
+        <v>557</v>
+      </c>
+      <c r="C39" s="6">
         <v>4</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="I39" s="9" t="s">
+      <c r="D39" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>47</v>
+      <c r="A40" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C40" s="7">
+        <v>318</v>
+      </c>
+      <c r="C40" s="6">
         <v>4</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="I40" s="9" t="s">
+      <c r="D40" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>47</v>
+      <c r="A41" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C41" s="7">
+        <v>327</v>
+      </c>
+      <c r="C41" s="6">
         <v>4</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="I41" s="9" t="s">
+      <c r="D41" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>47</v>
+      <c r="A42" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C42" s="7">
-        <v>4</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="I42" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C42" s="6">
+        <v>3</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>47</v>
+      <c r="A43" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C43" s="7">
-        <v>3</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="I43" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="6">
+        <v>15</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>109</v>
+      <c r="A44" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="7">
+        <v>112</v>
+      </c>
+      <c r="C44" s="6">
         <v>15</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="E44" s="8" t="s">
+      <c r="D44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="I44" s="9" t="s">
+      <c r="G44" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="11">
-        <v>15</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="H45" s="9" t="s">
+      <c r="A45" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="E46" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="11">
-        <v>2</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="I46" s="9" t="s">
+      <c r="G46" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="11">
+      <c r="A47" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="6">
         <v>2</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="I47" s="9" t="s">
+      <c r="D47" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="11">
+      <c r="A48" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="6">
         <v>2</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="I48" s="9" t="s">
+      <c r="D48" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="11">
+      <c r="A49" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="6">
         <v>2</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="I49" s="9" t="s">
+      <c r="D49" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="11">
-        <v>2</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>424</v>
+      <c r="A50" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>583</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="C51" s="11">
+      <c r="A51" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C51" s="6">
         <v>1</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="I51" s="9" t="s">
+      <c r="D51" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="C52" s="11">
+      <c r="A52" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C52" s="6">
         <v>1</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="I52" s="9" t="s">
+      <c r="D52" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="C53" s="11">
+      <c r="A53" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C53" s="6">
         <v>1</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="I53" s="9" t="s">
+      <c r="D53" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="C54" s="11">
+      <c r="A54" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C54" s="6">
         <v>1</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="H54" s="9" t="s">
+      <c r="D54" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="C55" s="11">
+      <c r="A55" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C55" s="6">
         <v>1</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="F55" s="9" t="s">
+      <c r="D55" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I55" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="J55" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="K55" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>431</v>
+      <c r="L55" s="14" t="s">
+        <v>588</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="6">
+        <v>3</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="7">
-        <v>2</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="F56" s="9" t="s">
+      <c r="E56" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="I56" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="J56" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="K56" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="L56" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>124</v>
+      <c r="A57" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="7">
+        <v>123</v>
+      </c>
+      <c r="C57" s="6">
         <v>2</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="H57" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="F57" s="9" t="s">
+      <c r="I57" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="J57" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="K57" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="L57" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="M57" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C58" s="7">
-        <v>1</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="E58" s="8" t="s">
+      <c r="H58" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="I58" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="K58" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="L58" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="B1 B59:B1048576">
+    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:L15 K17:L21 L16">
+    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J15 J17:J21">
+    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I15 I17:I21">
+    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H15 H17:H21">
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G15 G17:G21">
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F15 F17:F21">
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E15 E17:E21">
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C21">
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J58">
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I58">
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H58">
+    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G58">
+    <cfRule type="duplicateValues" dxfId="10" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F58">
+    <cfRule type="duplicateValues" dxfId="9" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E58">
+    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C58">
+    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:K58">
+    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D15 D17:D21">
+    <cfRule type="duplicateValues" dxfId="5" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D58">
+    <cfRule type="duplicateValues" dxfId="4" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C58">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D58">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A58">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F58">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template_instrumen.xlsx
+++ b/public/template_instrumen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53BF48C-ED6C-49FD-AA43-7126F4099930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF4299D-ACFC-4578-AF5D-7E5857542738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{F29D22C7-93BF-4282-9F88-0AB83B9FEE47}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19380" windowHeight="7635" xr2:uid="{F29D22C7-93BF-4282-9F88-0AB83B9FEE47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3601,8 +3601,8 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5919,7 +5919,7 @@
         <v>123</v>
       </c>
       <c r="C57" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>436</v>

--- a/public/template_instrumen.xlsx
+++ b/public/template_instrumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA95B97-A63A-4DC2-8B98-A9CF27168517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAB9BCD-4B2F-4A37-A474-06B189EA621D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{F29D22C7-93BF-4282-9F88-0AB83B9FEE47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="545">
   <si>
     <t>Komponen</t>
   </si>
@@ -1396,9 +1396,6 @@
   </si>
   <si>
     <t>Sekolah dalam melaksanakan kegiatannya mendapatkan dukungan dari: 1). IDUKA pasangan; 2). Dinas Pendidikan Provinsi 3). Kementrian Pendidikan dan Kebudayaan; 4). Masyarakat</t>
-  </si>
-  <si>
-    <t>Outcome</t>
   </si>
   <si>
     <t>Sekolah memiliki daftar prestasi akademik dan non akademik yang diikuti oleh siswa, guru, atau lembaga di berbagai bidang dengan rata-rata perolehan juara masuk dalam 3 besar minimal tingkat Provinsi</t>
@@ -3005,9 +3002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39974C29-4F78-416A-8A0F-B191B27EFFC3}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3096,7 +3093,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3134,7 +3131,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3172,7 +3169,7 @@
         <v>140</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3210,7 +3207,7 @@
         <v>145</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3248,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3286,7 +3283,7 @@
         <v>18</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3324,7 +3321,7 @@
         <v>24</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3362,7 +3359,7 @@
         <v>153</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3400,7 +3397,7 @@
         <v>160</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3438,7 +3435,7 @@
         <v>165</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3476,7 +3473,7 @@
         <v>171</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3514,7 +3511,7 @@
         <v>178</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3552,7 +3549,7 @@
         <v>185</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3590,7 +3587,7 @@
         <v>34</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3628,7 +3625,7 @@
         <v>192</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3666,7 +3663,7 @@
         <v>198</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3704,7 +3701,7 @@
         <v>38</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3742,7 +3739,7 @@
         <v>205</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3780,7 +3777,7 @@
         <v>211</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3818,7 +3815,7 @@
         <v>45</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3856,7 +3853,7 @@
         <v>67</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3894,7 +3891,7 @@
         <v>54</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3932,7 +3929,7 @@
         <v>74</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3970,7 +3967,7 @@
         <v>60</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4008,7 +4005,7 @@
         <v>223</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4046,7 +4043,7 @@
         <v>79</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4084,7 +4081,7 @@
         <v>85</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4122,7 +4119,7 @@
         <v>228</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4160,7 +4157,7 @@
         <v>234</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4198,7 +4195,7 @@
         <v>240</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4236,7 +4233,7 @@
         <v>247</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4274,7 +4271,7 @@
         <v>254</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4312,7 +4309,7 @@
         <v>65</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4350,7 +4347,7 @@
         <v>261</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4388,7 +4385,7 @@
         <v>97</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4426,7 +4423,7 @@
         <v>104</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4464,7 +4461,7 @@
         <v>266</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4502,7 +4499,7 @@
         <v>272</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4540,7 +4537,7 @@
         <v>454</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4578,7 +4575,7 @@
         <v>286</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4616,7 +4613,7 @@
         <v>294</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4654,7 +4651,7 @@
         <v>300</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4692,7 +4689,7 @@
         <v>114</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4730,7 +4727,7 @@
         <v>311</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4768,12 +4765,12 @@
         <v>317</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>118</v>
@@ -4806,12 +4803,12 @@
         <v>324</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>118</v>
@@ -4844,12 +4841,12 @@
         <v>330</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>118</v>
@@ -4882,12 +4879,12 @@
         <v>443</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>118</v>
@@ -4920,12 +4917,12 @@
         <v>356</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>427</v>
@@ -4958,12 +4955,12 @@
         <v>336</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>427</v>
@@ -4996,12 +4993,12 @@
         <v>342</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>427</v>
@@ -5034,12 +5031,12 @@
         <v>348</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>427</v>
@@ -5057,13 +5054,13 @@
         <v>349</v>
       </c>
       <c r="G54" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="I54" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>349</v>
@@ -5072,12 +5069,12 @@
         <v>350</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>427</v>
@@ -5089,7 +5086,7 @@
         <v>120</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>357</v>
@@ -5110,7 +5107,7 @@
         <v>362</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5133,22 +5130,22 @@
         <v>363</v>
       </c>
       <c r="G56" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="I56" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="J56" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="K56" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="K56" s="6" t="s">
-        <v>466</v>
-      </c>
       <c r="L56" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5162,31 +5159,31 @@
         <v>3</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>432</v>
       </c>
       <c r="F57" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="I57" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="J57" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="K57" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="K57" s="6" t="s">
-        <v>473</v>
-      </c>
       <c r="L57" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5194,75 +5191,75 @@
         <v>121</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C58" s="5">
         <v>2</v>
       </c>
       <c r="D58" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="F58" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="G58" s="5" t="s">
+      <c r="H58" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="I58" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="J58" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="K58" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="K58" s="5" t="s">
-        <v>481</v>
-      </c>
       <c r="L58" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>364</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>487</v>
-      </c>
       <c r="L59" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -5329,7 +5326,7 @@
   <conditionalFormatting sqref="D2:D58">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A58">
+  <conditionalFormatting sqref="A2:A59">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F58">

--- a/public/template_instrumen.xlsx
+++ b/public/template_instrumen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAB9BCD-4B2F-4A37-A474-06B189EA621D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F5F95D-82CA-4587-8743-B170838E06D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{F29D22C7-93BF-4282-9F88-0AB83B9FEE47}"/>
   </bookViews>
@@ -3002,9 +3002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39974C29-4F78-416A-8A0F-B191B27EFFC3}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3013,7 +3013,7 @@
     <col min="2" max="2" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="239.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="97.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="94.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="90.5703125" style="1" bestFit="1" customWidth="1"/>

--- a/public/template_instrumen.xlsx
+++ b/public/template_instrumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F5F95D-82CA-4587-8743-B170838E06D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D18FAEC-2345-4883-BD3D-A928CE5D0B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{F29D22C7-93BF-4282-9F88-0AB83B9FEE47}"/>
   </bookViews>
@@ -3002,9 +3002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39974C29-4F78-416A-8A0F-B191B27EFFC3}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3013,7 +3013,7 @@
     <col min="2" max="2" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="239.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="115.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="97.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="94.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="90.5703125" style="1" bestFit="1" customWidth="1"/>
